--- a/CONG NO/CONG NO 2015/LONG AN/Cong no NL ca 2015.xlsx
+++ b/CONG NO/CONG NO 2015/LONG AN/Cong no NL ca 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" firstSheet="14" activeTab="22"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" firstSheet="10" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="26" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">THANHMN!$A$9:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'THỦY KG'!$A$9:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'TRẮNG (VL)'!$A$9:$I$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'TRÍ HẢO VT'!$A$9:$J$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'TRÍ HẢO VT'!$A$9:$J$220</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TỶ LIÊN'!$A$9:$H$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="24">Sheet1!$C$16:$L$16</definedName>
   </definedNames>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="420">
   <si>
     <t xml:space="preserve">NGÀY </t>
   </si>
@@ -1437,6 +1437,9 @@
   </si>
   <si>
     <t>8 LẬP</t>
+  </si>
+  <si>
+    <t>Bò file (lai)</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2049,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2692,7 +2695,16 @@
     <xf numFmtId="164" fontId="41" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2722,12 +2734,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2740,6 +2746,15 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2747,15 +2762,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3278,7 +3284,7 @@
       </c>
       <c r="C7" s="151">
         <f>'DŨNG KG1'!H88</f>
-        <v>347770</v>
+        <v>247770</v>
       </c>
       <c r="E7" s="149">
         <f t="array" ref="E7">IF(G7&lt;&gt;0,SUM(($G$4:G7&lt;&gt;0)*1),"")</f>
@@ -3289,7 +3295,7 @@
       </c>
       <c r="G7" s="151">
         <f>'7 NGHĨA'!H22</f>
-        <v>339360</v>
+        <v>239360</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="15" customFormat="1" ht="21.75" customHeight="1">
@@ -3345,7 +3351,7 @@
       </c>
       <c r="C10" s="151">
         <f>'NHÂN CM'!$H$39</f>
-        <v>99180</v>
+        <v>29180</v>
       </c>
       <c r="E10" s="149" t="str">
         <f t="array" ref="E10">IF(G10&lt;&gt;0,SUM(($G$4:G10&lt;&gt;0)*1),"")</f>
@@ -3382,7 +3388,7 @@
         <v>374</v>
       </c>
       <c r="C12" s="151">
-        <f>THANHMN!G81</f>
+        <f>THANHMN!G80</f>
         <v>2093426</v>
       </c>
       <c r="E12" s="149" t="str">
@@ -3440,7 +3446,7 @@
       </c>
       <c r="C15" s="151">
         <f>'TRÍ HẢO VT'!I220</f>
-        <v>-85347.799999999814</v>
+        <v>-125347.79999999981</v>
       </c>
       <c r="E15" s="149" t="str">
         <f t="array" ref="E15">IF(G15&lt;&gt;0,SUM(($G$4:G15&lt;&gt;0)*1),"")</f>
@@ -3459,7 +3465,7 @@
       </c>
       <c r="C16" s="151">
         <f>'MẠNH VT'!I26</f>
-        <v>216000</v>
+        <v>116000</v>
       </c>
       <c r="E16" s="149" t="str">
         <f t="array" ref="E16">IF(G16&lt;&gt;0,SUM(($G$4:G16&lt;&gt;0)*1),"")</f>
@@ -3478,7 +3484,7 @@
       </c>
       <c r="C17" s="151">
         <f>D.ĐIỂM!G84</f>
-        <v>701226.5</v>
+        <v>695500</v>
       </c>
       <c r="E17" s="149" t="str">
         <f t="array" ref="E17">IF(G17&lt;&gt;0,SUM(($G$4:G17&lt;&gt;0)*1),"")</f>
@@ -3497,7 +3503,7 @@
       </c>
       <c r="C18" s="151">
         <f>'TRẮNG (VL)'!H68</f>
-        <v>109096</v>
+        <v>49096</v>
       </c>
       <c r="E18" s="149" t="str">
         <f t="array" ref="E18">IF(G18&lt;&gt;0,SUM(($G$4:G18&lt;&gt;0)*1),"")</f>
@@ -3736,21 +3742,21 @@
       <c r="G34" s="212"/>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A35" s="225" t="s">
+      <c r="A35" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="225"/>
+      <c r="B35" s="226"/>
       <c r="C35" s="213">
         <f>SUM(C4:C34)</f>
-        <v>6423129.7999999998</v>
-      </c>
-      <c r="E35" s="225" t="s">
+        <v>6047403.2999999998</v>
+      </c>
+      <c r="E35" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="225"/>
+      <c r="F35" s="226"/>
       <c r="G35" s="213">
         <f>SUM(G4:G34)</f>
-        <v>437856</v>
+        <v>337856</v>
       </c>
     </row>
   </sheetData>
@@ -3769,12 +3775,12 @@
   <sheetPr codeName="Sheet23" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomLeft" activeCell="F54" activeCellId="1" sqref="F43:F52 F54:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -3793,66 +3799,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="256" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="256"/>
+      <c r="D7" s="257"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="257"/>
-      <c r="D8" s="258"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="259"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -3904,7 +3910,7 @@
         <f>IF(B10&lt;&gt;"",+E10-F10,0)</f>
         <v>31790</v>
       </c>
-      <c r="H10" s="259" t="s">
+      <c r="H10" s="260" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3929,7 +3935,7 @@
         <f>IF(B11&lt;&gt;"",G10+E11-F11,0)</f>
         <v>153370</v>
       </c>
-      <c r="H11" s="260"/>
+      <c r="H11" s="261"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" hidden="1" customHeight="1">
       <c r="A12" s="24"/>
@@ -3945,14 +3951,14 @@
       <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" hidden="1" customHeight="1">
-      <c r="A13" s="232"/>
-      <c r="B13" s="233"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="234"/>
+      <c r="A13" s="235"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="236"/>
+      <c r="H13" s="237"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" hidden="1" customHeight="1">
       <c r="A14" s="24">
@@ -4168,14 +4174,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" hidden="1" customHeight="1">
-      <c r="A23" s="232"/>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="233"/>
-      <c r="G23" s="233"/>
-      <c r="H23" s="234"/>
+      <c r="A23" s="235"/>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="236"/>
+      <c r="F23" s="236"/>
+      <c r="G23" s="236"/>
+      <c r="H23" s="237"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" hidden="1" customHeight="1">
       <c r="A24" s="24">
@@ -4308,14 +4314,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" hidden="1" customHeight="1">
-      <c r="A30" s="232"/>
-      <c r="B30" s="233"/>
-      <c r="C30" s="233"/>
-      <c r="D30" s="233"/>
-      <c r="E30" s="233"/>
-      <c r="F30" s="233"/>
-      <c r="G30" s="233"/>
-      <c r="H30" s="234"/>
+      <c r="A30" s="235"/>
+      <c r="B30" s="236"/>
+      <c r="C30" s="236"/>
+      <c r="D30" s="236"/>
+      <c r="E30" s="236"/>
+      <c r="F30" s="236"/>
+      <c r="G30" s="236"/>
+      <c r="H30" s="237"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" hidden="1" customHeight="1">
       <c r="A31" s="24">
@@ -4355,12 +4361,12 @@
         <v>33</v>
       </c>
       <c r="E32" s="27">
-        <f t="shared" ref="E32:E58" si="2">C32*D32</f>
+        <f t="shared" ref="E32:E57" si="2">C32*D32</f>
         <v>512226</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="27">
-        <f t="shared" ref="G32:G58" si="3">IF(B32&lt;&gt;"",G31+E32-F32,0)</f>
+        <f t="shared" ref="G32:G57" si="3">IF(B32&lt;&gt;"",G31+E32-F32,0)</f>
         <v>833976</v>
       </c>
       <c r="H32" s="31"/>
@@ -4546,16 +4552,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" hidden="1" customHeight="1">
-      <c r="A41" s="232"/>
-      <c r="B41" s="233"/>
-      <c r="C41" s="233"/>
-      <c r="D41" s="233"/>
-      <c r="E41" s="233"/>
-      <c r="F41" s="233"/>
-      <c r="G41" s="233"/>
-      <c r="H41" s="234"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+      <c r="A41" s="235"/>
+      <c r="B41" s="236"/>
+      <c r="C41" s="236"/>
+      <c r="D41" s="236"/>
+      <c r="E41" s="236"/>
+      <c r="F41" s="236"/>
+      <c r="G41" s="236"/>
+      <c r="H41" s="237"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" customHeight="1">
       <c r="A42" s="24">
         <v>42032</v>
       </c>
@@ -4579,7 +4585,7 @@
       </c>
       <c r="H42" s="30"/>
     </row>
-    <row r="43" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+    <row r="43" spans="1:8" ht="18.75" customHeight="1">
       <c r="A43" s="24"/>
       <c r="B43" s="31" t="s">
         <v>17</v>
@@ -4601,7 +4607,7 @@
         <v>42035</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+    <row r="44" spans="1:8" ht="18.75" customHeight="1">
       <c r="A44" s="24">
         <v>42034</v>
       </c>
@@ -4625,7 +4631,7 @@
       </c>
       <c r="H44" s="30"/>
     </row>
-    <row r="45" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+    <row r="45" spans="1:8" ht="18.75" customHeight="1">
       <c r="A45" s="24"/>
       <c r="B45" s="31" t="s">
         <v>17</v>
@@ -4647,7 +4653,7 @@
         <v>42049</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:8" ht="18.75" customHeight="1">
       <c r="A46" s="24"/>
       <c r="B46" s="31" t="s">
         <v>17</v>
@@ -4670,7 +4676,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+    <row r="47" spans="1:8" ht="18.75" customHeight="1">
       <c r="A47" s="24">
         <v>42059</v>
       </c>
@@ -4694,7 +4700,7 @@
       </c>
       <c r="H47" s="30"/>
     </row>
-    <row r="48" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+    <row r="48" spans="1:8" ht="18.75" customHeight="1">
       <c r="A48" s="24">
         <v>42087</v>
       </c>
@@ -4718,7 +4724,7 @@
       </c>
       <c r="H48" s="30"/>
     </row>
-    <row r="49" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:8" ht="18.75" customHeight="1">
       <c r="A49" s="24"/>
       <c r="B49" s="31" t="s">
         <v>17</v>
@@ -4740,7 +4746,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:8" ht="18.75" customHeight="1">
       <c r="A50" s="24"/>
       <c r="B50" s="31" t="s">
         <v>17</v>
@@ -4762,7 +4768,7 @@
         <v>42084</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+    <row r="51" spans="1:8" ht="18.75" customHeight="1">
       <c r="A51" s="24"/>
       <c r="B51" s="31" t="s">
         <v>17</v>
@@ -4784,7 +4790,7 @@
         <v>42087</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+    <row r="52" spans="1:8" ht="18.75" customHeight="1">
       <c r="A52" s="24"/>
       <c r="B52" s="31" t="s">
         <v>17</v>
@@ -4806,7 +4812,7 @@
         <v>42159</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+    <row r="53" spans="1:8" ht="18.75" customHeight="1">
       <c r="A53" s="24"/>
       <c r="B53" s="31" t="s">
         <v>22</v>
@@ -4828,7 +4834,7 @@
         <v>42087</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" hidden="1" customHeight="1">
+    <row r="54" spans="1:8" ht="18.75" customHeight="1">
       <c r="A54" s="24"/>
       <c r="B54" s="31" t="s">
         <v>17</v>
@@ -4851,223 +4857,229 @@
         <v>42213</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.75" hidden="1" customHeight="1">
-      <c r="A55" s="232"/>
-      <c r="B55" s="233"/>
-      <c r="C55" s="233"/>
-      <c r="D55" s="233"/>
-      <c r="E55" s="233"/>
-      <c r="F55" s="233"/>
-      <c r="G55" s="233"/>
-      <c r="H55" s="234"/>
+    <row r="55" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A55" s="24">
+        <v>42199</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="26">
+        <v>8424</v>
+      </c>
+      <c r="D55" s="27">
+        <v>44</v>
+      </c>
+      <c r="E55" s="27">
+        <f t="shared" si="2"/>
+        <v>370656</v>
+      </c>
+      <c r="F55" s="29"/>
+      <c r="G55" s="27">
+        <f>IF(B55&lt;&gt;"",G54+E55-F55,0)</f>
+        <v>370656</v>
+      </c>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:8" ht="18.75" customHeight="1">
       <c r="A56" s="24">
-        <v>42199</v>
+        <v>42209</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="C56" s="26">
-        <v>8424</v>
+        <v>10374</v>
       </c>
       <c r="D56" s="27">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E56" s="27">
         <f t="shared" si="2"/>
-        <v>370656</v>
+        <v>622440</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="27">
-        <f>IF(B56&lt;&gt;"",G54+E56-F56,0)</f>
-        <v>370656</v>
+        <f t="shared" si="3"/>
+        <v>993096</v>
       </c>
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1">
       <c r="A57" s="24">
-        <v>42209</v>
+        <v>42218</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>206</v>
       </c>
       <c r="C57" s="26">
-        <v>10374</v>
+        <v>7420</v>
       </c>
       <c r="D57" s="27">
         <v>60</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="2"/>
-        <v>622440</v>
+        <v>445200</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="27">
         <f t="shared" si="3"/>
-        <v>993096</v>
+        <v>1438296</v>
       </c>
       <c r="H57" s="30"/>
     </row>
     <row r="58" spans="1:8" ht="18.75" customHeight="1">
       <c r="A58" s="24">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="B58" s="31" t="s">
         <v>206</v>
       </c>
       <c r="C58" s="26">
-        <v>7420</v>
+        <v>4536</v>
       </c>
       <c r="D58" s="27">
         <v>60</v>
       </c>
       <c r="E58" s="27">
-        <f t="shared" si="2"/>
-        <v>445200</v>
+        <f t="shared" ref="E58:E78" si="4">C58*D58</f>
+        <v>272160</v>
       </c>
       <c r="F58" s="29"/>
       <c r="G58" s="27">
-        <f t="shared" si="3"/>
-        <v>1438296</v>
+        <f t="shared" ref="G58:G78" si="5">IF(B58&lt;&gt;"",G57+E58-F58,0)</f>
+        <v>1710456</v>
       </c>
       <c r="H58" s="30"/>
     </row>
     <row r="59" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A59" s="24">
-        <v>42220</v>
-      </c>
+      <c r="A59" s="24"/>
       <c r="B59" s="31" t="s">
-        <v>206</v>
+        <v>380</v>
       </c>
       <c r="C59" s="26">
-        <v>4536</v>
+        <v>3090</v>
       </c>
       <c r="D59" s="27">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E59" s="27">
-        <f t="shared" ref="E59:E79" si="4">C59*D59</f>
-        <v>272160</v>
+        <f t="shared" si="4"/>
+        <v>169950</v>
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="27">
-        <f t="shared" ref="G59:G79" si="5">IF(B59&lt;&gt;"",G58+E59-F59,0)</f>
-        <v>1710456</v>
+        <f t="shared" si="5"/>
+        <v>1880406</v>
       </c>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A60" s="24"/>
+      <c r="A60" s="24">
+        <v>42222</v>
+      </c>
       <c r="B60" s="31" t="s">
         <v>380</v>
       </c>
       <c r="C60" s="26">
-        <v>3090</v>
+        <v>2700</v>
       </c>
       <c r="D60" s="27">
         <v>55</v>
       </c>
       <c r="E60" s="27">
         <f t="shared" si="4"/>
-        <v>169950</v>
+        <v>148500</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="27">
         <f t="shared" si="5"/>
-        <v>1880406</v>
+        <v>2028906</v>
       </c>
       <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A61" s="24">
-        <v>42222</v>
-      </c>
+      <c r="A61" s="24"/>
       <c r="B61" s="31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C61" s="26">
-        <v>2700</v>
+        <v>525</v>
       </c>
       <c r="D61" s="27">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E61" s="27">
         <f t="shared" si="4"/>
-        <v>148500</v>
+        <v>23625</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="27">
         <f t="shared" si="5"/>
-        <v>2028906</v>
+        <v>2052531</v>
       </c>
       <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8" ht="18.75" customHeight="1">
       <c r="A62" s="24"/>
       <c r="B62" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="C62" s="26">
-        <v>525</v>
-      </c>
-      <c r="D62" s="27">
-        <v>45</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="27">
         <f t="shared" si="4"/>
-        <v>23625</v>
-      </c>
-      <c r="F62" s="29"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="29">
+        <v>400000</v>
+      </c>
       <c r="G62" s="27">
         <f t="shared" si="5"/>
-        <v>2052531</v>
-      </c>
-      <c r="H62" s="30"/>
+        <v>1652531</v>
+      </c>
+      <c r="H62" s="30">
+        <v>42235</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A63" s="24"/>
+      <c r="A63" s="24">
+        <v>42314</v>
+      </c>
       <c r="B63" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="C63" s="26">
+        <v>7410</v>
+      </c>
+      <c r="D63" s="27">
+        <v>59.5</v>
+      </c>
       <c r="E63" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="29">
-        <v>400000</v>
-      </c>
+        <v>440895</v>
+      </c>
+      <c r="F63" s="29"/>
       <c r="G63" s="27">
         <f t="shared" si="5"/>
-        <v>1652531</v>
-      </c>
-      <c r="H63" s="30">
-        <v>42235</v>
-      </c>
+        <v>2093426</v>
+      </c>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A64" s="24">
-        <v>42314</v>
-      </c>
-      <c r="B64" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="C64" s="26">
-        <v>7410</v>
-      </c>
-      <c r="D64" s="27">
-        <v>59.5</v>
-      </c>
+      <c r="A64" s="24"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
       <c r="E64" s="27">
-        <f t="shared" si="4"/>
-        <v>440895</v>
+        <f t="shared" ref="E64:E77" si="6">C64*D64</f>
+        <v>0</v>
       </c>
       <c r="F64" s="29"/>
       <c r="G64" s="27">
-        <f t="shared" si="5"/>
-        <v>2093426</v>
+        <f t="shared" ref="G64:G77" si="7">IF(B64&lt;&gt;"",G63+E64-F64,0)</f>
+        <v>0</v>
       </c>
       <c r="H64" s="30"/>
     </row>
@@ -5077,12 +5089,12 @@
       <c r="C65" s="26"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27">
-        <f t="shared" ref="E65:E78" si="6">C65*D65</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="27">
-        <f t="shared" ref="G65:G78" si="7">IF(B65&lt;&gt;"",G64+E65-F65,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H65" s="30"/>
@@ -5285,12 +5297,12 @@
       <c r="C78" s="26"/>
       <c r="D78" s="27"/>
       <c r="E78" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H78" s="30"/>
@@ -5301,66 +5313,45 @@
       <c r="C79" s="26"/>
       <c r="D79" s="27"/>
       <c r="E79" s="27">
-        <f t="shared" si="4"/>
+        <f>C79*D79</f>
         <v>0</v>
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="27">
-        <f t="shared" si="5"/>
+        <f>IF(B79&lt;&gt;"",G78+E79-F79,0)</f>
         <v>0</v>
       </c>
       <c r="H79" s="30"/>
     </row>
-    <row r="80" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A80" s="24"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27">
-        <f>C80*D80</f>
-        <v>0</v>
-      </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="27">
-        <f>IF(B80&lt;&gt;"",G79+E80-F80,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="30"/>
-    </row>
-    <row r="81" spans="1:8" s="37" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A81" s="225" t="s">
+    <row r="80" spans="1:8" s="37" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A80" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="225"/>
-      <c r="C81" s="225"/>
-      <c r="D81" s="225"/>
-      <c r="E81" s="68">
-        <f>SUM(E10:E80)</f>
+      <c r="B80" s="226"/>
+      <c r="C80" s="226"/>
+      <c r="D80" s="226"/>
+      <c r="E80" s="68">
+        <f>SUM(E10:E79)</f>
         <v>6859489</v>
       </c>
-      <c r="F81" s="68">
-        <f>SUM(F10:F80)</f>
+      <c r="F80" s="68">
+        <f>SUM(F10:F79)</f>
         <v>4766063</v>
       </c>
-      <c r="G81" s="82">
-        <f>E81-F81</f>
+      <c r="G80" s="82">
+        <f>E80-F80</f>
         <v>2093426</v>
       </c>
-      <c r="H81" s="69"/>
-    </row>
-    <row r="82" spans="1:8" ht="21.75" customHeight="1">
-      <c r="F82" s="11"/>
-      <c r="G82" s="7"/>
+      <c r="H80" s="69"/>
+    </row>
+    <row r="81" spans="6:7" ht="21.75" customHeight="1">
+      <c r="F81" s="11"/>
+      <c r="G81" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
-  <mergeCells count="15">
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A81:D81"/>
+  <mergeCells count="14">
+    <mergeCell ref="A80:D80"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C8:D8"/>
@@ -5369,7 +5360,11 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.54" right="0.26" top="0.32" bottom="0.74" header="0.23" footer="0.17"/>
@@ -5406,66 +5401,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="256" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="257" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="256"/>
+      <c r="D7" s="257"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="257"/>
-      <c r="D8" s="258"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="259"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -5810,12 +5805,12 @@
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" s="200" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="225" t="s">
+      <c r="A27" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="225"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="225"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="226"/>
+      <c r="D27" s="226"/>
       <c r="E27" s="68">
         <f>SUM(E10:E26)</f>
         <v>165493.6</v>
@@ -5862,7 +5857,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -5881,66 +5876,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>390</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="256" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="257" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="256"/>
+      <c r="D7" s="257"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="257"/>
-      <c r="D8" s="258"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="259"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -6181,52 +6176,75 @@
       <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="24">
+        <v>42315</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1391</v>
+      </c>
+      <c r="D19" s="27">
+        <v>8</v>
+      </c>
       <c r="E19" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11128</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11128</v>
       </c>
       <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
+      <c r="A20" s="24">
+        <v>42318</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" s="26">
+        <v>10162</v>
+      </c>
+      <c r="D20" s="27">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="E20" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89425.600000000006</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100553.60000000001</v>
       </c>
       <c r="H20" s="30"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="24">
+        <v>42329</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="29"/>
+        <f t="shared" ref="E21" si="2">C21*D21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="29">
+        <f>G20</f>
+        <v>100553.60000000001</v>
+      </c>
       <c r="G21" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="30"/>
+        <f t="shared" ref="G21" si="3">IF(B21&lt;&gt;"",G20+E21-F21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1">
       <c r="A22" s="24"/>
@@ -6309,19 +6327,19 @@
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" s="200" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="225" t="s">
+      <c r="A27" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="225"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="225"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="226"/>
+      <c r="D27" s="226"/>
       <c r="E27" s="68">
         <f>SUM(E10:E26)</f>
-        <v>225969.5</v>
+        <v>326523.09999999998</v>
       </c>
       <c r="F27" s="68">
         <f>SUM(F10:F26)</f>
-        <v>225969.5</v>
+        <v>326523.09999999998</v>
       </c>
       <c r="G27" s="82">
         <f>E27-F27</f>
@@ -6359,9 +6377,9 @@
   <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="I220" sqref="I220"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -6378,41 +6396,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
       <c r="I1" s="162"/>
       <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
       <c r="I2" s="162"/>
       <c r="J2" s="162"/>
     </row>
     <row r="3" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="253"/>
       <c r="C3" s="190"/>
-      <c r="D3" s="252" t="s">
+      <c r="D3" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
       <c r="G3" s="190"/>
       <c r="H3" s="186"/>
       <c r="I3" s="162"/>
@@ -6427,18 +6445,18 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="D6" s="8"/>
@@ -6449,10 +6467,10 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="250" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="250"/>
       <c r="C7" s="189"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" hidden="1" customHeight="1">
@@ -6737,16 +6755,16 @@
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="253" t="s">
+      <c r="A20" s="254" t="s">
         <v>353</v>
       </c>
-      <c r="B20" s="254"/>
-      <c r="C20" s="254"/>
-      <c r="D20" s="254"/>
-      <c r="E20" s="254"/>
-      <c r="F20" s="254"/>
-      <c r="G20" s="254"/>
-      <c r="H20" s="254"/>
+      <c r="B20" s="255"/>
+      <c r="C20" s="255"/>
+      <c r="D20" s="255"/>
+      <c r="E20" s="255"/>
+      <c r="F20" s="255"/>
+      <c r="G20" s="255"/>
+      <c r="H20" s="255"/>
       <c r="I20" s="99">
         <f>I19</f>
         <v>170230</v>
@@ -7244,16 +7262,16 @@
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A41" s="253" t="s">
+      <c r="A41" s="254" t="s">
         <v>354</v>
       </c>
-      <c r="B41" s="254"/>
-      <c r="C41" s="254"/>
-      <c r="D41" s="254"/>
-      <c r="E41" s="254"/>
-      <c r="F41" s="254"/>
-      <c r="G41" s="254"/>
-      <c r="H41" s="254"/>
+      <c r="B41" s="255"/>
+      <c r="C41" s="255"/>
+      <c r="D41" s="255"/>
+      <c r="E41" s="255"/>
+      <c r="F41" s="255"/>
+      <c r="G41" s="255"/>
+      <c r="H41" s="255"/>
       <c r="I41" s="99">
         <f>I40</f>
         <v>-14903</v>
@@ -7788,16 +7806,16 @@
       <c r="J62" s="16"/>
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A63" s="253" t="s">
+      <c r="A63" s="254" t="s">
         <v>355</v>
       </c>
-      <c r="B63" s="254"/>
-      <c r="C63" s="254"/>
-      <c r="D63" s="254"/>
-      <c r="E63" s="254"/>
-      <c r="F63" s="254"/>
-      <c r="G63" s="254"/>
-      <c r="H63" s="254"/>
+      <c r="B63" s="255"/>
+      <c r="C63" s="255"/>
+      <c r="D63" s="255"/>
+      <c r="E63" s="255"/>
+      <c r="F63" s="255"/>
+      <c r="G63" s="255"/>
+      <c r="H63" s="255"/>
       <c r="I63" s="99">
         <f>I62</f>
         <v>-22885</v>
@@ -8593,16 +8611,16 @@
       <c r="J93" s="16"/>
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A94" s="253" t="s">
+      <c r="A94" s="254" t="s">
         <v>356</v>
       </c>
-      <c r="B94" s="254"/>
-      <c r="C94" s="254"/>
-      <c r="D94" s="254"/>
-      <c r="E94" s="254"/>
-      <c r="F94" s="254"/>
-      <c r="G94" s="254"/>
-      <c r="H94" s="254"/>
+      <c r="B94" s="255"/>
+      <c r="C94" s="255"/>
+      <c r="D94" s="255"/>
+      <c r="E94" s="255"/>
+      <c r="F94" s="255"/>
+      <c r="G94" s="255"/>
+      <c r="H94" s="255"/>
       <c r="I94" s="99">
         <f>I93</f>
         <v>-433838</v>
@@ -9296,16 +9314,16 @@
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A121" s="253" t="s">
+      <c r="A121" s="254" t="s">
         <v>357</v>
       </c>
-      <c r="B121" s="254"/>
-      <c r="C121" s="254"/>
-      <c r="D121" s="254"/>
-      <c r="E121" s="254"/>
-      <c r="F121" s="254"/>
-      <c r="G121" s="254"/>
-      <c r="H121" s="254"/>
+      <c r="B121" s="255"/>
+      <c r="C121" s="255"/>
+      <c r="D121" s="255"/>
+      <c r="E121" s="255"/>
+      <c r="F121" s="255"/>
+      <c r="G121" s="255"/>
+      <c r="H121" s="255"/>
       <c r="I121" s="99">
         <f>I120</f>
         <v>-225994.5</v>
@@ -9795,16 +9813,16 @@
       <c r="J139" s="16"/>
     </row>
     <row r="140" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A140" s="253" t="s">
+      <c r="A140" s="254" t="s">
         <v>358</v>
       </c>
-      <c r="B140" s="254"/>
-      <c r="C140" s="254"/>
-      <c r="D140" s="254"/>
-      <c r="E140" s="254"/>
-      <c r="F140" s="254"/>
-      <c r="G140" s="254"/>
-      <c r="H140" s="254"/>
+      <c r="B140" s="255"/>
+      <c r="C140" s="255"/>
+      <c r="D140" s="255"/>
+      <c r="E140" s="255"/>
+      <c r="F140" s="255"/>
+      <c r="G140" s="255"/>
+      <c r="H140" s="255"/>
       <c r="I140" s="99">
         <f>I139</f>
         <v>-92729.3</v>
@@ -10302,16 +10320,16 @@
       <c r="J158" s="16"/>
     </row>
     <row r="159" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A159" s="253" t="s">
+      <c r="A159" s="254" t="s">
         <v>362</v>
       </c>
-      <c r="B159" s="254"/>
-      <c r="C159" s="254"/>
-      <c r="D159" s="254"/>
-      <c r="E159" s="254"/>
-      <c r="F159" s="254"/>
-      <c r="G159" s="254"/>
-      <c r="H159" s="254"/>
+      <c r="B159" s="255"/>
+      <c r="C159" s="255"/>
+      <c r="D159" s="255"/>
+      <c r="E159" s="255"/>
+      <c r="F159" s="255"/>
+      <c r="G159" s="255"/>
+      <c r="H159" s="255"/>
       <c r="I159" s="99">
         <f>I158</f>
         <v>-261663.69999999998</v>
@@ -10885,16 +10903,16 @@
       <c r="J180" s="16"/>
     </row>
     <row r="181" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A181" s="253" t="s">
+      <c r="A181" s="254" t="s">
         <v>415</v>
       </c>
-      <c r="B181" s="254"/>
-      <c r="C181" s="254"/>
-      <c r="D181" s="254"/>
-      <c r="E181" s="254"/>
-      <c r="F181" s="254"/>
-      <c r="G181" s="254"/>
-      <c r="H181" s="254"/>
+      <c r="B181" s="255"/>
+      <c r="C181" s="255"/>
+      <c r="D181" s="255"/>
+      <c r="E181" s="255"/>
+      <c r="F181" s="255"/>
+      <c r="G181" s="255"/>
+      <c r="H181" s="255"/>
       <c r="I181" s="99">
         <f>I180</f>
         <v>-29693.799999999945</v>
@@ -11084,9 +11102,15 @@
       <c r="J189" s="16"/>
     </row>
     <row r="190" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A190" s="18"/>
-      <c r="B190" s="16"/>
-      <c r="C190" s="16"/>
+      <c r="A190" s="18">
+        <v>42322</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="D190" s="20"/>
       <c r="E190" s="19"/>
       <c r="F190" s="19">
@@ -11094,10 +11118,12 @@
         <v>0</v>
       </c>
       <c r="G190" s="19"/>
-      <c r="H190" s="19"/>
+      <c r="H190" s="19">
+        <v>40000</v>
+      </c>
       <c r="I190" s="19">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-233029</v>
       </c>
       <c r="J190" s="16"/>
     </row>
@@ -11624,13 +11650,13 @@
       <c r="J219" s="21"/>
     </row>
     <row r="220" spans="1:10" s="158" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A220" s="250" t="s">
+      <c r="A220" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="B220" s="250"/>
-      <c r="C220" s="250"/>
-      <c r="D220" s="250"/>
-      <c r="E220" s="250"/>
+      <c r="B220" s="251"/>
+      <c r="C220" s="251"/>
+      <c r="D220" s="251"/>
+      <c r="E220" s="251"/>
       <c r="F220" s="170">
         <f>SUM(F10:F219)</f>
         <v>4467587</v>
@@ -11641,11 +11667,11 @@
       </c>
       <c r="H220" s="170">
         <f t="shared" si="28"/>
-        <v>1484611</v>
+        <v>1524611</v>
       </c>
       <c r="I220" s="171">
         <f>F220-G220-H220</f>
-        <v>-85347.799999999814</v>
+        <v>-125347.79999999981</v>
       </c>
       <c r="J220" s="169"/>
     </row>
@@ -11654,7 +11680,7 @@
       <c r="I221" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:J9">
+  <autoFilter ref="A9:J220">
     <filterColumn colId="2"/>
     <filterColumn colId="6"/>
   </autoFilter>
@@ -11692,7 +11718,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -11709,41 +11735,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
       <c r="I1" s="162"/>
       <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
       <c r="I2" s="162"/>
       <c r="J2" s="162"/>
     </row>
     <row r="3" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="253"/>
       <c r="C3" s="204"/>
-      <c r="D3" s="252" t="s">
+      <c r="D3" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
       <c r="G3" s="204"/>
       <c r="H3" s="204"/>
       <c r="I3" s="162"/>
@@ -11758,18 +11784,18 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="D6" s="8"/>
@@ -11780,10 +11806,10 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="250" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="250"/>
       <c r="C7" s="202"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" hidden="1" customHeight="1">
@@ -11848,8 +11874,12 @@
       <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="18">
+        <v>42322</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="16"/>
       <c r="D11" s="20"/>
       <c r="E11" s="19"/>
@@ -11858,10 +11888,12 @@
         <v>0</v>
       </c>
       <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="19">
+        <v>100000</v>
+      </c>
       <c r="I11" s="19">
         <f t="shared" ref="I11:I25" si="1">IF(B11&lt;&gt;"",I10+F11-H11-G11,0)</f>
-        <v>0</v>
+        <v>116000</v>
       </c>
       <c r="J11" s="16"/>
     </row>
@@ -12118,13 +12150,13 @@
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" s="202" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A26" s="250" t="s">
+      <c r="A26" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="250"/>
-      <c r="C26" s="250"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="250"/>
+      <c r="B26" s="251"/>
+      <c r="C26" s="251"/>
+      <c r="D26" s="251"/>
+      <c r="E26" s="251"/>
       <c r="F26" s="170">
         <f>SUM(F10:F25)</f>
         <v>216000</v>
@@ -12135,11 +12167,11 @@
       </c>
       <c r="H26" s="170">
         <f>SUM(H10:H25)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I26" s="171">
         <f>F26-G26-H26</f>
-        <v>216000</v>
+        <v>116000</v>
       </c>
       <c r="J26" s="203"/>
     </row>
@@ -12177,7 +12209,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -12196,37 +12228,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="239" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238" t="s">
+      <c r="B3" s="239"/>
+      <c r="C3" s="239" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
       <c r="F3" s="51"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
@@ -12239,16 +12271,16 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:9" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
       <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
@@ -12259,18 +12291,18 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="227" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="240" t="s">
+      <c r="D7" s="230"/>
+      <c r="E7" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="240"/>
+      <c r="F7" s="241"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1">
@@ -12309,14 +12341,14 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="A10" s="262" t="s">
+      <c r="A10" s="263" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="263"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
       <c r="G10" s="48">
         <v>451789</v>
       </c>
@@ -12928,14 +12960,14 @@
       <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="A38" s="262" t="s">
+      <c r="A38" s="263" t="s">
         <v>251</v>
       </c>
-      <c r="B38" s="263"/>
-      <c r="C38" s="263"/>
-      <c r="D38" s="263"/>
-      <c r="E38" s="263"/>
-      <c r="F38" s="263"/>
+      <c r="B38" s="264"/>
+      <c r="C38" s="264"/>
+      <c r="D38" s="264"/>
+      <c r="E38" s="264"/>
+      <c r="F38" s="264"/>
       <c r="G38" s="48">
         <f>G37</f>
         <v>85826</v>
@@ -13048,12 +13080,12 @@
         <v>148</v>
       </c>
       <c r="E43" s="27">
-        <f t="shared" ref="E43:E69" si="4">C43*D43</f>
+        <f t="shared" ref="E43:E68" si="4">C43*D43</f>
         <v>180560</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="27">
-        <f t="shared" ref="G43:G69" si="5">IF(B43&lt;&gt;"",G42+E43-F43,0)</f>
+        <f t="shared" ref="G43:G79" si="5">IF(B43&lt;&gt;"",G42+E43-F43,0)</f>
         <v>349682</v>
       </c>
       <c r="H43" s="31"/>
@@ -13427,14 +13459,14 @@
       </c>
     </row>
     <row r="60" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="A60" s="262" t="s">
+      <c r="A60" s="263" t="s">
         <v>382</v>
       </c>
-      <c r="B60" s="263"/>
-      <c r="C60" s="263"/>
-      <c r="D60" s="263"/>
-      <c r="E60" s="263"/>
-      <c r="F60" s="263"/>
+      <c r="B60" s="264"/>
+      <c r="C60" s="264"/>
+      <c r="D60" s="264"/>
+      <c r="E60" s="264"/>
+      <c r="F60" s="264"/>
       <c r="G60" s="48">
         <f>G59</f>
         <v>0</v>
@@ -13647,136 +13679,171 @@
         <v>42311</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="C69" s="26">
-        <v>7000</v>
-      </c>
-      <c r="D69" s="27">
-        <v>48</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="27">
-        <f t="shared" si="4"/>
-        <v>336000</v>
-      </c>
-      <c r="F69" s="29"/>
+        <f t="shared" ref="E69:E83" si="6">C69*D69</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="29">
+        <v>300000</v>
+      </c>
       <c r="G69" s="27">
         <f t="shared" si="5"/>
-        <v>957726.5</v>
-      </c>
-      <c r="H69" s="31" t="s">
-        <v>386</v>
-      </c>
+        <v>321726.5</v>
+      </c>
+      <c r="H69" s="24"/>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
-      <c r="A70" s="24"/>
+      <c r="A70" s="24">
+        <v>42329</v>
+      </c>
       <c r="B70" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="C70" s="26">
-        <v>3000</v>
-      </c>
-      <c r="D70" s="27">
-        <v>14.5</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="27">
-        <f t="shared" ref="E70:E83" si="6">C70*D70</f>
-        <v>43500</v>
-      </c>
-      <c r="F70" s="29"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="29">
+        <f>G69</f>
+        <v>321726.5</v>
+      </c>
       <c r="G70" s="27">
-        <f t="shared" ref="G70:G83" si="7">IF(B70&lt;&gt;"",G69+E70-F70,0)</f>
-        <v>1001226.5</v>
-      </c>
-      <c r="H70" s="31" t="s">
-        <v>341</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="24"/>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
       <c r="A71" s="24">
         <v>42311</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
+        <v>383</v>
+      </c>
+      <c r="C71" s="26">
+        <v>7000</v>
+      </c>
+      <c r="D71" s="27">
+        <v>48</v>
+      </c>
       <c r="E71" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="29">
-        <v>300000</v>
-      </c>
+        <f>C71*D71</f>
+        <v>336000</v>
+      </c>
+      <c r="F71" s="29"/>
       <c r="G71" s="27">
-        <f t="shared" si="7"/>
-        <v>701226.5</v>
-      </c>
-      <c r="H71" s="24"/>
+        <f t="shared" si="5"/>
+        <v>336000</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
       <c r="A72" s="24"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
+      <c r="B72" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" s="26">
+        <v>3000</v>
+      </c>
+      <c r="D72" s="27">
+        <v>14.5</v>
+      </c>
       <c r="E72" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C72*D72</f>
+        <v>43500</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="24"/>
+        <f t="shared" si="5"/>
+        <v>379500</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
-      <c r="A73" s="24"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="27"/>
+      <c r="A73" s="24">
+        <v>42315</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C73" s="26">
+        <v>2500</v>
+      </c>
+      <c r="D73" s="27">
+        <v>48.5</v>
+      </c>
       <c r="E73" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>121250</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="24"/>
+        <f t="shared" si="5"/>
+        <v>500750</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
-      <c r="A74" s="24"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
+      <c r="A74" s="24">
+        <v>42317</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C74" s="26">
+        <v>2500</v>
+      </c>
+      <c r="D74" s="27">
+        <v>48.5</v>
+      </c>
       <c r="E74" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>121250</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="24"/>
+        <f t="shared" si="5"/>
+        <v>622000</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
       <c r="A75" s="24"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
+      <c r="B75" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C75" s="26">
+        <v>1500</v>
+      </c>
+      <c r="D75" s="27">
+        <v>49</v>
+      </c>
       <c r="E75" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>73500</v>
       </c>
       <c r="F75" s="29"/>
       <c r="G75" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="24"/>
+        <f t="shared" si="5"/>
+        <v>695500</v>
+      </c>
+      <c r="H75" s="31" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
       <c r="A76" s="24"/>
@@ -13789,7 +13856,7 @@
       </c>
       <c r="F76" s="29"/>
       <c r="G76" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H76" s="24"/>
@@ -13805,7 +13872,7 @@
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H77" s="24"/>
@@ -13821,7 +13888,7 @@
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H78" s="24"/>
@@ -13837,7 +13904,7 @@
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H79" s="24"/>
@@ -13853,7 +13920,7 @@
       </c>
       <c r="F80" s="29"/>
       <c r="G80" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G70:G83" si="7">IF(B80&lt;&gt;"",G79+E80-F80,0)</f>
         <v>0</v>
       </c>
       <c r="H80" s="24"/>
@@ -13907,23 +13974,23 @@
       <c r="H83" s="24"/>
     </row>
     <row r="84" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A84" s="225" t="s">
+      <c r="A84" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="225"/>
-      <c r="C84" s="225"/>
-      <c r="D84" s="225"/>
+      <c r="B84" s="226"/>
+      <c r="C84" s="226"/>
+      <c r="D84" s="226"/>
       <c r="E84" s="68">
         <f>SUM(E11:E83)+G10</f>
-        <v>4998676.9000000004</v>
+        <v>5314676.9000000004</v>
       </c>
       <c r="F84" s="68">
         <f>SUM(F11:F83)+H10</f>
-        <v>4297450.4000000004</v>
+        <v>4619176.9000000004</v>
       </c>
       <c r="G84" s="68">
         <f>(E84-F84)</f>
-        <v>701226.5</v>
+        <v>695500</v>
       </c>
       <c r="H84" s="69"/>
     </row>
@@ -13934,11 +14001,11 @@
       </c>
       <c r="C86" s="109"/>
       <c r="D86" s="110"/>
-      <c r="E86" s="264">
+      <c r="E86" s="265">
         <f>G84*1000</f>
-        <v>701226500</v>
-      </c>
-      <c r="F86" s="264"/>
+        <v>695500000</v>
+      </c>
+      <c r="F86" s="265"/>
       <c r="G86" s="115" t="s">
         <v>88</v>
       </c>
@@ -13952,7 +14019,7 @@
       </c>
       <c r="C87" s="112" t="str">
         <f>[1]!VND(E86, TRUE)</f>
-        <v>Bảy trăm lẻ một triệu, hai trăm hai mươi sáu ngàn, năm trăm đồng</v>
+        <v>Sáu trăm chín mươi lăm triệu, năm trăm ngàn đồng</v>
       </c>
       <c r="D87" s="110"/>
       <c r="E87" s="110"/>
@@ -13962,28 +14029,35 @@
       <c r="I87" s="110"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1">
-      <c r="E89" s="265" t="s">
+      <c r="E89" s="266" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="265"/>
-      <c r="G89" s="265"/>
-      <c r="H89" s="265"/>
+      <c r="F89" s="266"/>
+      <c r="G89" s="266"/>
+      <c r="H89" s="266"/>
     </row>
     <row r="90" spans="1:9" ht="21.75" customHeight="1">
       <c r="A90" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B90" s="14"/>
-      <c r="E90" s="261" t="s">
+      <c r="E90" s="262" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="261"/>
-      <c r="G90" s="261"/>
-      <c r="H90" s="261"/>
+      <c r="F90" s="262"/>
+      <c r="G90" s="262"/>
+      <c r="H90" s="262"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="15">
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A60:F60"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
@@ -13992,13 +14066,6 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A60:F60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.61" right="0.16" top="0.64" bottom="0.2" header="0.3" footer="0.17"/>
@@ -14017,7 +14084,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B64" sqref="B64"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -14036,40 +14103,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
       <c r="H1" s="162"/>
       <c r="I1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
       <c r="H2" s="162"/>
       <c r="I2" s="162"/>
     </row>
     <row r="3" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="253"/>
       <c r="C3" s="194"/>
-      <c r="D3" s="252" t="s">
+      <c r="D3" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
       <c r="G3" s="194"/>
       <c r="H3" s="162"/>
       <c r="I3" s="162"/>
@@ -14082,17 +14149,17 @@
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="D6" s="8"/>
@@ -14102,10 +14169,10 @@
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="250" t="s">
         <v>348</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="250"/>
       <c r="C7" s="192"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
@@ -15493,8 +15560,12 @@
       <c r="I62" s="18"/>
     </row>
     <row r="63" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="18">
+        <v>42322</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="C63" s="18"/>
       <c r="D63" s="20"/>
       <c r="E63" s="19"/>
@@ -15502,10 +15573,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G63" s="19"/>
+      <c r="G63" s="19">
+        <v>60000</v>
+      </c>
       <c r="H63" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>49096</v>
       </c>
       <c r="I63" s="18"/>
     </row>
@@ -15578,24 +15651,24 @@
       <c r="I67" s="18"/>
     </row>
     <row r="68" spans="1:9" s="192" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A68" s="250" t="s">
+      <c r="A68" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="250"/>
-      <c r="C68" s="250"/>
-      <c r="D68" s="250"/>
-      <c r="E68" s="250"/>
+      <c r="B68" s="251"/>
+      <c r="C68" s="251"/>
+      <c r="D68" s="251"/>
+      <c r="E68" s="251"/>
       <c r="F68" s="170">
         <f>SUM(F10:F67)</f>
         <v>864949.4</v>
       </c>
       <c r="G68" s="170">
         <f>SUM(G10:G67)</f>
-        <v>755853.4</v>
+        <v>815853.4</v>
       </c>
       <c r="H68" s="171">
         <f>F68-G68</f>
-        <v>109096</v>
+        <v>49096</v>
       </c>
       <c r="I68" s="193"/>
     </row>
@@ -15613,7 +15686,7 @@
       <c r="E70" s="110"/>
       <c r="F70" s="128">
         <f>H68*1000</f>
-        <v>109096000</v>
+        <v>49096000</v>
       </c>
       <c r="G70" s="115" t="s">
         <v>88</v>
@@ -15629,7 +15702,7 @@
       <c r="C71" s="114"/>
       <c r="D71" s="112" t="str">
         <f>[1]!VND(F70, TRUE)</f>
-        <v>Một trăm lẻ chín triệu, không trăm chín mươi sáu ngàn đồng</v>
+        <v>Bốn mươi chín triệu, không trăm chín mươi sáu ngàn đồng</v>
       </c>
       <c r="E71" s="110"/>
       <c r="F71" s="110"/>
@@ -15685,66 +15758,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>397</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="256" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="257" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="256"/>
+      <c r="D7" s="257"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="257"/>
-      <c r="D8" s="258"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="259"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -16061,12 +16134,12 @@
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" s="200" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="225" t="s">
+      <c r="A27" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="225"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="225"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="226"/>
+      <c r="D27" s="226"/>
       <c r="E27" s="68">
         <f>SUM(E10:E26)</f>
         <v>422100</v>
@@ -16131,37 +16204,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
       <c r="G1" s="53"/>
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
       <c r="G2" s="53"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="239" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238" t="s">
+      <c r="B3" s="239"/>
+      <c r="C3" s="239" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
       <c r="F3" s="51"/>
       <c r="G3" s="53"/>
       <c r="H3" s="54"/>
@@ -16173,17 +16246,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -16192,14 +16265,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="250" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
+      <c r="B7" s="250"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="20.25" customHeight="1">
@@ -16778,12 +16851,12 @@
       <c r="I32" s="155"/>
     </row>
     <row r="33" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A33" s="225" t="s">
+      <c r="A33" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="225"/>
-      <c r="C33" s="225"/>
-      <c r="D33" s="225"/>
+      <c r="B33" s="226"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
       <c r="E33" s="68">
         <f>SUM(E10:E32)</f>
         <v>756686.5</v>
@@ -16850,39 +16923,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -16897,18 +16970,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -16919,19 +16992,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="227" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="230" t="s">
         <v>399</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="240" t="s">
+      <c r="D7" s="230"/>
+      <c r="E7" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -17249,12 +17322,12 @@
       <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="225" t="s">
+      <c r="A25" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="225"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="225"/>
+      <c r="B25" s="226"/>
+      <c r="C25" s="226"/>
+      <c r="D25" s="226"/>
       <c r="E25" s="68">
         <f>SUM(E10:E24)</f>
         <v>198496</v>
@@ -17321,39 +17394,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
       <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
       <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -17366,17 +17439,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -17385,14 +17458,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="227" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="230" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="227"/>
+      <c r="D7" s="230"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1">
       <c r="C8" s="57"/>
@@ -17433,15 +17506,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="229" t="s">
+      <c r="A10" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="230"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="231"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="234"/>
       <c r="H10" s="99">
         <v>2622054</v>
       </c>
@@ -19324,15 +19397,15 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A90" s="229" t="s">
+      <c r="A90" s="232" t="s">
         <v>251</v>
       </c>
-      <c r="B90" s="230"/>
-      <c r="C90" s="230"/>
-      <c r="D90" s="230"/>
-      <c r="E90" s="230"/>
-      <c r="F90" s="230"/>
-      <c r="G90" s="231"/>
+      <c r="B90" s="233"/>
+      <c r="C90" s="233"/>
+      <c r="D90" s="233"/>
+      <c r="E90" s="233"/>
+      <c r="F90" s="233"/>
+      <c r="G90" s="234"/>
       <c r="H90" s="99">
         <f>H89</f>
         <v>2411924</v>
@@ -20408,15 +20481,15 @@
       </c>
     </row>
     <row r="136" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A136" s="232"/>
-      <c r="B136" s="233"/>
-      <c r="C136" s="233"/>
-      <c r="D136" s="233"/>
-      <c r="E136" s="233"/>
-      <c r="F136" s="233"/>
-      <c r="G136" s="233"/>
-      <c r="H136" s="233"/>
-      <c r="I136" s="234"/>
+      <c r="A136" s="235"/>
+      <c r="B136" s="236"/>
+      <c r="C136" s="236"/>
+      <c r="D136" s="236"/>
+      <c r="E136" s="236"/>
+      <c r="F136" s="236"/>
+      <c r="G136" s="236"/>
+      <c r="H136" s="236"/>
+      <c r="I136" s="237"/>
     </row>
     <row r="137" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
       <c r="A137" s="39"/>
@@ -21600,12 +21673,12 @@
       <c r="I187" s="105"/>
     </row>
     <row r="188" spans="1:9" s="37" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A188" s="225" t="s">
+      <c r="A188" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B188" s="225"/>
-      <c r="C188" s="225"/>
-      <c r="D188" s="225"/>
+      <c r="B188" s="226"/>
+      <c r="C188" s="226"/>
+      <c r="D188" s="226"/>
       <c r="E188" s="68">
         <f>SUM(E10:E187)</f>
         <v>17332086</v>
@@ -21671,20 +21744,15 @@
     <row r="193" spans="1:9" ht="21.75" customHeight="1">
       <c r="A193" s="15"/>
       <c r="B193" s="14"/>
-      <c r="E193" s="226"/>
-      <c r="F193" s="226"/>
-      <c r="G193" s="226"/>
-      <c r="H193" s="226"/>
+      <c r="E193" s="229"/>
+      <c r="F193" s="229"/>
+      <c r="G193" s="229"/>
+      <c r="H193" s="229"/>
       <c r="I193" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="E193:H193"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="C7:D7"/>
@@ -21692,6 +21760,11 @@
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A136:I136"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.16" right="0.17" top="0.16" bottom="0.17" header="0.16" footer="0.16"/>
@@ -21727,39 +21800,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -21774,18 +21847,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -21796,19 +21869,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="227" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="240" t="s">
+      <c r="D7" s="230"/>
+      <c r="E7" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -22006,12 +22079,12 @@
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A18" s="225" t="s">
+      <c r="A18" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="225"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
+      <c r="B18" s="226"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="226"/>
       <c r="E18" s="68">
         <f>SUM(E10:E17)</f>
         <v>77440</v>
@@ -22078,39 +22151,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -22125,18 +22198,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -22147,19 +22220,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="227" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="240" t="s">
+      <c r="D7" s="230"/>
+      <c r="E7" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -22419,12 +22492,12 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="225" t="s">
+      <c r="A22" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="225"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="225"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
       <c r="E22" s="68">
         <f>SUM(E10:E21)</f>
         <v>90861</v>
@@ -22473,7 +22546,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B80" sqref="B80"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15:F17"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -22492,42 +22565,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="227"/>
       <c r="C3" s="215"/>
-      <c r="D3" s="235" t="s">
+      <c r="D3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="93"/>
       <c r="H3" s="215"/>
       <c r="I3" s="62"/>
@@ -22542,19 +22615,19 @@
       <c r="J4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
-      <c r="K5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1">
       <c r="D6" s="4"/>
@@ -22565,20 +22638,20 @@
       <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="228"/>
+      <c r="B7" s="231"/>
       <c r="C7" s="214"/>
-      <c r="D7" s="227" t="s">
+      <c r="D7" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="227"/>
-      <c r="F7" s="240" t="s">
+      <c r="E7" s="230"/>
+      <c r="F7" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
       <c r="J7" s="217"/>
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="18" customHeight="1">
@@ -22835,8 +22908,12 @@
       <c r="J17" s="155"/>
     </row>
     <row r="18" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="24">
+        <v>42322</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C18" s="31"/>
       <c r="D18" s="26"/>
       <c r="E18" s="27"/>
@@ -22845,10 +22922,12 @@
         <v>0</v>
       </c>
       <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="H18" s="29">
+        <v>200000</v>
+      </c>
       <c r="I18" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>381791.29999999993</v>
       </c>
       <c r="J18" s="155"/>
     </row>
@@ -22907,13 +22986,13 @@
       <c r="J21" s="155"/>
     </row>
     <row r="22" spans="1:11" s="214" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="225" t="s">
+      <c r="A22" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="225"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="225"/>
-      <c r="E22" s="225"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="226"/>
       <c r="F22" s="68">
         <f>SUM(F10:F21)</f>
         <v>670046.29999999993</v>
@@ -22924,11 +23003,11 @@
       </c>
       <c r="H22" s="68">
         <f>SUM(H10:H21)</f>
-        <v>88255</v>
+        <v>288255</v>
       </c>
       <c r="I22" s="68">
         <f>F22-G22-H22</f>
-        <v>581791.29999999993</v>
+        <v>381791.29999999993</v>
       </c>
       <c r="J22" s="68"/>
       <c r="K22" s="216"/>
@@ -22961,10 +23040,10 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B80" sqref="B80"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -22982,39 +23061,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -23029,18 +23108,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -23051,19 +23130,19 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>417</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="227" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="240" t="s">
+      <c r="D7" s="230"/>
+      <c r="E7" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
       <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -23154,8 +23233,12 @@
       <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="24">
+        <v>42327</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27">
@@ -23163,10 +23246,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
+      <c r="G12" s="29">
+        <v>100000</v>
+      </c>
       <c r="H12" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>239360</v>
       </c>
       <c r="I12" s="31"/>
     </row>
@@ -23324,12 +23409,12 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="219" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="225" t="s">
+      <c r="A22" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="225"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="225"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
       <c r="E22" s="68">
         <f>SUM(E10:E21)</f>
         <v>339360</v>
@@ -23340,11 +23425,11 @@
       </c>
       <c r="G22" s="68">
         <f>SUM(G10:G21)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H22" s="68">
         <f>E22-F22-G22</f>
-        <v>339360</v>
+        <v>239360</v>
       </c>
       <c r="I22" s="68"/>
       <c r="J22" s="221"/>
@@ -23375,7 +23460,7 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B80" sqref="B80"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
@@ -23396,39 +23481,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -23443,18 +23528,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -23465,19 +23550,19 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>418</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="227" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="240" t="s">
+      <c r="D7" s="230"/>
+      <c r="E7" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
       <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -23749,12 +23834,12 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="219" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="225" t="s">
+      <c r="A22" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="225"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="225"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
       <c r="E22" s="68">
         <f>SUM(E10:E21)</f>
         <v>202400</v>
@@ -24762,9 +24847,9 @@
   <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
-      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
+      <selection pane="bottomLeft" activeCell="F123" activeCellId="1" sqref="F97:F119 F123:F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -24781,37 +24866,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="239" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238" t="s">
+      <c r="B3" s="239"/>
+      <c r="C3" s="239" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
       <c r="F3" s="51"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
@@ -24824,16 +24909,16 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -24843,10 +24928,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="228"/>
+      <c r="B7" s="231"/>
       <c r="E7" s="185" t="s">
         <v>303</v>
       </c>
@@ -25205,14 +25290,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="239" t="s">
+      <c r="A24" s="240" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="239"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="239"/>
+      <c r="B24" s="240"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="240"/>
+      <c r="E24" s="240"/>
+      <c r="F24" s="240"/>
       <c r="G24" s="172">
         <f>G23</f>
         <v>853629</v>
@@ -27830,12 +27915,12 @@
       <c r="H139" s="24"/>
     </row>
     <row r="140" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="225" t="s">
+      <c r="A140" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B140" s="225"/>
-      <c r="C140" s="225"/>
-      <c r="D140" s="225"/>
+      <c r="B140" s="226"/>
+      <c r="C140" s="226"/>
+      <c r="D140" s="226"/>
       <c r="E140" s="68">
         <f>SUM(E10:E139)</f>
         <v>9802534</v>
@@ -27916,7 +28001,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B80" sqref="B80"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -27934,39 +28019,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -27981,18 +28066,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -28003,19 +28088,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="227" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="230" t="s">
         <v>399</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="240" t="s">
+      <c r="D7" s="230"/>
+      <c r="E7" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -28514,15 +28599,15 @@
       </c>
     </row>
     <row r="29" spans="1:9" s="35" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="A29" s="239" t="s">
+      <c r="A29" s="240" t="s">
         <v>252</v>
       </c>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="239"/>
-      <c r="G29" s="239"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
+      <c r="E29" s="240"/>
+      <c r="F29" s="240"/>
+      <c r="G29" s="240"/>
       <c r="H29" s="153">
         <f>H28</f>
         <v>0</v>
@@ -29662,20 +29747,26 @@
     </row>
     <row r="77" spans="1:9" ht="20.25" customHeight="1">
       <c r="A77" s="24"/>
-      <c r="B77" s="31"/>
+      <c r="B77" s="67" t="s">
+        <v>17</v>
+      </c>
       <c r="C77" s="26"/>
       <c r="D77" s="27"/>
       <c r="E77" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E77" si="4">C77*D77</f>
         <v>0</v>
       </c>
       <c r="F77" s="28"/>
-      <c r="G77" s="29"/>
+      <c r="G77" s="29">
+        <v>100000</v>
+      </c>
       <c r="H77" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="31"/>
+        <f t="shared" ref="H77" si="5">IF(B77&lt;&gt;"",H76+E77-F77-G77,0)</f>
+        <v>247770</v>
+      </c>
+      <c r="I77" s="225">
+        <v>42327</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="20.25" customHeight="1">
       <c r="A78" s="24"/>
@@ -29848,12 +29939,12 @@
       <c r="I87" s="31"/>
     </row>
     <row r="88" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A88" s="225" t="s">
+      <c r="A88" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="225"/>
-      <c r="C88" s="225"/>
-      <c r="D88" s="225"/>
+      <c r="B88" s="226"/>
+      <c r="C88" s="226"/>
+      <c r="D88" s="226"/>
       <c r="E88" s="68">
         <f>SUM(E10:E87)</f>
         <v>4829546.5</v>
@@ -29864,11 +29955,11 @@
       </c>
       <c r="G88" s="68">
         <f>SUM(G10:G87)</f>
-        <v>4481776.5</v>
+        <v>4581776.5</v>
       </c>
       <c r="H88" s="68">
         <f>E88-F88-G88</f>
-        <v>347770</v>
+        <v>247770</v>
       </c>
       <c r="I88" s="68"/>
       <c r="J88" s="206"/>
@@ -29921,65 +30012,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="231" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="228"/>
+      <c r="D7" s="231"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="11.25" customHeight="1">
       <c r="G8" s="56"/>
@@ -30015,15 +30106,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A10" s="244" t="s">
+      <c r="A10" s="242" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="245"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="245"/>
-      <c r="G10" s="246"/>
+      <c r="B10" s="243"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="244"/>
       <c r="H10" s="144">
         <v>699938</v>
       </c>
@@ -31710,15 +31801,15 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A81" s="244" t="s">
+      <c r="A81" s="242" t="s">
         <v>199</v>
       </c>
-      <c r="B81" s="245"/>
-      <c r="C81" s="245"/>
-      <c r="D81" s="245"/>
-      <c r="E81" s="245"/>
-      <c r="F81" s="245"/>
-      <c r="G81" s="246"/>
+      <c r="B81" s="243"/>
+      <c r="C81" s="243"/>
+      <c r="D81" s="243"/>
+      <c r="E81" s="243"/>
+      <c r="F81" s="243"/>
+      <c r="G81" s="244"/>
       <c r="H81" s="144">
         <f>H80</f>
         <v>1800668</v>
@@ -32700,15 +32791,15 @@
       <c r="I120" s="31"/>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A121" s="244" t="s">
+      <c r="A121" s="242" t="s">
         <v>251</v>
       </c>
-      <c r="B121" s="245"/>
-      <c r="C121" s="245"/>
-      <c r="D121" s="245"/>
-      <c r="E121" s="245"/>
-      <c r="F121" s="245"/>
-      <c r="G121" s="246"/>
+      <c r="B121" s="243"/>
+      <c r="C121" s="243"/>
+      <c r="D121" s="243"/>
+      <c r="E121" s="243"/>
+      <c r="F121" s="243"/>
+      <c r="G121" s="244"/>
       <c r="H121" s="144">
         <f>H120</f>
         <v>2586475</v>
@@ -33440,7 +33531,7 @@
         <f t="shared" si="22"/>
         <v>307801.5</v>
       </c>
-      <c r="I152" s="247" t="s">
+      <c r="I152" s="248" t="s">
         <v>198</v>
       </c>
     </row>
@@ -33465,7 +33556,7 @@
         <f t="shared" si="22"/>
         <v>318851.5</v>
       </c>
-      <c r="I153" s="248"/>
+      <c r="I153" s="249"/>
     </row>
     <row r="154" spans="1:9" ht="20.25" customHeight="1">
       <c r="A154" s="24">
@@ -33682,12 +33773,12 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" s="37" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A164" s="241" t="s">
+      <c r="A164" s="245" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="242"/>
-      <c r="C164" s="242"/>
-      <c r="D164" s="243"/>
+      <c r="B164" s="246"/>
+      <c r="C164" s="246"/>
+      <c r="D164" s="247"/>
       <c r="E164" s="81">
         <f>SUM(E11:E163)+H10</f>
         <v>8739526.5</v>
@@ -33744,11 +33835,6 @@
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:B7"/>
@@ -33756,6 +33842,11 @@
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="I152:I153"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.41" right="0.22" top="0.28000000000000003" bottom="0.15" header="0.16" footer="0.15"/>
@@ -33790,38 +33881,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
       <c r="F1" s="177"/>
       <c r="G1" s="162"/>
       <c r="H1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
       <c r="G2" s="162"/>
       <c r="H2" s="162"/>
     </row>
     <row r="3" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252" t="s">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
       <c r="F3" s="178"/>
       <c r="G3" s="162"/>
       <c r="H3" s="162"/>
@@ -33834,17 +33925,17 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="8"/>
@@ -33854,10 +33945,10 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="250" t="s">
         <v>369</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="250"/>
       <c r="C7" s="210" t="s">
         <v>371</v>
       </c>
@@ -34016,12 +34107,12 @@
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9" s="158" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="250" t="s">
+      <c r="A17" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="250"/>
-      <c r="C17" s="250"/>
-      <c r="D17" s="250"/>
+      <c r="B17" s="251"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="251"/>
       <c r="E17" s="170">
         <f>SUM(E10:E16)</f>
         <v>445985</v>
@@ -34120,39 +34211,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -34167,18 +34258,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -34189,19 +34280,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="227" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="240" t="s">
+      <c r="D7" s="230"/>
+      <c r="E7" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -34913,12 +35004,12 @@
       <c r="I38" s="201"/>
     </row>
     <row r="39" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="225" t="s">
+      <c r="A39" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="225"/>
-      <c r="C39" s="225"/>
-      <c r="D39" s="225"/>
+      <c r="B39" s="226"/>
+      <c r="C39" s="226"/>
+      <c r="D39" s="226"/>
       <c r="E39" s="68">
         <f>SUM(E10:E38)</f>
         <v>93300</v>
@@ -34967,9 +35058,9 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -34987,39 +35078,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -35034,18 +35125,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -35056,19 +35147,19 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="227" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="230" t="s">
         <v>413</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="240" t="s">
+      <c r="D7" s="230"/>
+      <c r="E7" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
       <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -35159,8 +35250,12 @@
       <c r="I11" s="220"/>
     </row>
     <row r="12" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="24">
+        <v>42328</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27">
@@ -35168,10 +35263,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="64"/>
-      <c r="G12" s="42"/>
+      <c r="G12" s="42">
+        <v>70000</v>
+      </c>
       <c r="H12" s="27">
         <f t="shared" ref="H12:H38" si="1">IF(B12&lt;&gt;"",H11+E12-F12-G12,0)</f>
-        <v>0</v>
+        <v>29180</v>
       </c>
       <c r="I12" s="220"/>
     </row>
@@ -35618,12 +35715,12 @@
       <c r="I38" s="220"/>
     </row>
     <row r="39" spans="1:10" s="219" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="225" t="s">
+      <c r="A39" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="225"/>
-      <c r="C39" s="225"/>
-      <c r="D39" s="225"/>
+      <c r="B39" s="226"/>
+      <c r="C39" s="226"/>
+      <c r="D39" s="226"/>
       <c r="E39" s="68">
         <f>SUM(E10:E38)</f>
         <v>99180</v>
@@ -35634,11 +35731,11 @@
       </c>
       <c r="G39" s="68">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="H39" s="68">
         <f>E39-F39-G39</f>
-        <v>99180</v>
+        <v>29180</v>
       </c>
       <c r="I39" s="68"/>
       <c r="J39" s="221"/>
@@ -35674,7 +35771,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
-      <selection pane="bottomLeft" activeCell="I139" sqref="I139"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74:G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -35692,39 +35789,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
       <c r="F3" s="93"/>
       <c r="G3" s="59"/>
       <c r="H3" s="62"/>
@@ -35739,18 +35836,18 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -35761,19 +35858,19 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="231" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="227" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="230" t="s">
         <v>372</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="240" t="s">
+      <c r="D7" s="230"/>
+      <c r="E7" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -36060,17 +36157,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
-      <c r="A20" s="253" t="s">
+      <c r="A20" s="254" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="254"/>
-      <c r="C20" s="254"/>
-      <c r="D20" s="254"/>
-      <c r="E20" s="254"/>
-      <c r="F20" s="254"/>
-      <c r="G20" s="254"/>
-      <c r="H20" s="254"/>
-      <c r="I20" s="255"/>
+      <c r="B20" s="255"/>
+      <c r="C20" s="255"/>
+      <c r="D20" s="255"/>
+      <c r="E20" s="255"/>
+      <c r="F20" s="255"/>
+      <c r="G20" s="255"/>
+      <c r="H20" s="255"/>
+      <c r="I20" s="256"/>
     </row>
     <row r="21" spans="1:9" s="8" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="18">
@@ -39043,12 +39140,12 @@
       <c r="I142" s="197"/>
     </row>
     <row r="143" spans="1:10" s="37" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A143" s="225" t="s">
+      <c r="A143" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="B143" s="225"/>
-      <c r="C143" s="225"/>
-      <c r="D143" s="225"/>
+      <c r="B143" s="226"/>
+      <c r="C143" s="226"/>
+      <c r="D143" s="226"/>
       <c r="E143" s="68">
         <f>SUM(E21:E142)</f>
         <v>2129439.5</v>

--- a/CONG NO/CONG NO 2015/LONG AN/Cong no NL ca 2015.xlsx
+++ b/CONG NO/CONG NO 2015/LONG AN/Cong no NL ca 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" firstSheet="13" activeTab="26"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="26" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DŨNG KG'!$A$9:$J$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'HIỆP (PT)'!$A$9:$I$143</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'HƯƠNG ST'!$A$9:$I$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'LEE CÁ BÒ'!$A$9:$H$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'LEE CÁ BÒ'!$A$9:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'LÙN TV'!$A$9:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'MẠNH VT'!$A$9:$J$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NAM CV'!$A$9:$H$9</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="440">
   <si>
     <t xml:space="preserve">NGÀY </t>
   </si>
@@ -1495,6 +1495,18 @@
   <si>
     <t>Bò file</t>
   </si>
+  <si>
+    <t>TIỀN NL &amp; GIA CÔNG</t>
+  </si>
+  <si>
+    <t>Tiền công CN</t>
+  </si>
+  <si>
+    <t>Bốc xếp</t>
+  </si>
+  <si>
+    <t>Băng keo</t>
+  </si>
 </sst>
 </file>
 
@@ -1507,7 +1519,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1769,6 +1781,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2103,7 +2121,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2782,7 +2800,31 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2812,12 +2854,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2827,6 +2863,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2834,15 +2879,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2914,6 +2950,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3529,8 +3570,8 @@
         <v>431</v>
       </c>
       <c r="C15" s="151">
-        <f>'LEE CÁ BÒ'!$G$27</f>
-        <v>120940</v>
+        <f>'LEE CÁ BÒ'!$H$27</f>
+        <v>118577</v>
       </c>
       <c r="E15" s="149" t="str">
         <f t="array" ref="E15">IF(G15&lt;&gt;0,SUM(($G$4:G15&lt;&gt;0)*1),"")</f>
@@ -3841,18 +3882,18 @@
       <c r="G34" s="212"/>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A35" s="236" t="s">
+      <c r="A35" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="236"/>
+      <c r="B35" s="242"/>
       <c r="C35" s="213">
         <f>SUM(C4:C34)</f>
-        <v>6823458.5</v>
-      </c>
-      <c r="E35" s="236" t="s">
+        <v>6821095.5</v>
+      </c>
+      <c r="E35" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="236"/>
+      <c r="F35" s="242"/>
       <c r="G35" s="213">
         <f>SUM(G4:G34)</f>
         <v>331700</v>
@@ -3897,39 +3938,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="93"/>
       <c r="G3" s="226"/>
       <c r="H3" s="62"/>
@@ -3944,18 +3985,18 @@
       <c r="I4" s="233"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -3966,17 +4007,17 @@
       <c r="I6" s="233"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="259" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
       <c r="I7" s="233"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -4295,12 +4336,12 @@
       <c r="I25" s="229"/>
     </row>
     <row r="26" spans="1:10" s="227" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A26" s="236" t="s">
+      <c r="A26" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
+      <c r="B26" s="242"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="242"/>
       <c r="E26" s="68">
         <f>SUM(E10:E25)</f>
         <v>0</v>
@@ -4369,39 +4410,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="93"/>
       <c r="G3" s="59"/>
       <c r="H3" s="62"/>
@@ -4416,18 +4457,18 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -4438,19 +4479,19 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="238" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="246" t="s">
         <v>372</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="259" t="s">
+      <c r="D7" s="246"/>
+      <c r="E7" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -4737,17 +4778,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
-      <c r="A20" s="264" t="s">
+      <c r="A20" s="270" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="265"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="265"/>
-      <c r="I20" s="266"/>
+      <c r="B20" s="271"/>
+      <c r="C20" s="271"/>
+      <c r="D20" s="271"/>
+      <c r="E20" s="271"/>
+      <c r="F20" s="271"/>
+      <c r="G20" s="271"/>
+      <c r="H20" s="271"/>
+      <c r="I20" s="272"/>
     </row>
     <row r="21" spans="1:9" s="8" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="18">
@@ -7726,12 +7767,12 @@
       <c r="I142" s="197"/>
     </row>
     <row r="143" spans="1:10" s="37" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A143" s="236" t="s">
+      <c r="A143" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B143" s="236"/>
-      <c r="C143" s="236"/>
-      <c r="D143" s="236"/>
+      <c r="B143" s="242"/>
+      <c r="C143" s="242"/>
+      <c r="D143" s="242"/>
       <c r="E143" s="68">
         <f>SUM(E21:E142)</f>
         <v>2129439.5</v>
@@ -7803,66 +7844,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="267" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="273" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="267"/>
+      <c r="D7" s="273"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="268"/>
-      <c r="D8" s="269"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="275"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -7914,7 +7955,7 @@
         <f>IF(B10&lt;&gt;"",+E10-F10,0)</f>
         <v>31790</v>
       </c>
-      <c r="H10" s="270" t="s">
+      <c r="H10" s="276" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7939,7 +7980,7 @@
         <f>IF(B11&lt;&gt;"",G10+E11-F11,0)</f>
         <v>153370</v>
       </c>
-      <c r="H11" s="271"/>
+      <c r="H11" s="277"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" hidden="1" customHeight="1">
       <c r="A12" s="24"/>
@@ -7955,14 +7996,14 @@
       <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" hidden="1" customHeight="1">
-      <c r="A13" s="243"/>
-      <c r="B13" s="244"/>
-      <c r="C13" s="244"/>
-      <c r="D13" s="244"/>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="245"/>
+      <c r="A13" s="251"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="252"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="252"/>
+      <c r="H13" s="253"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" hidden="1" customHeight="1">
       <c r="A14" s="24">
@@ -8178,14 +8219,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" hidden="1" customHeight="1">
-      <c r="A23" s="243"/>
-      <c r="B23" s="244"/>
-      <c r="C23" s="244"/>
-      <c r="D23" s="244"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="244"/>
-      <c r="H23" s="245"/>
+      <c r="A23" s="251"/>
+      <c r="B23" s="252"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="252"/>
+      <c r="H23" s="253"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" hidden="1" customHeight="1">
       <c r="A24" s="24">
@@ -8318,14 +8359,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" hidden="1" customHeight="1">
-      <c r="A30" s="243"/>
-      <c r="B30" s="244"/>
-      <c r="C30" s="244"/>
-      <c r="D30" s="244"/>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="245"/>
+      <c r="A30" s="251"/>
+      <c r="B30" s="252"/>
+      <c r="C30" s="252"/>
+      <c r="D30" s="252"/>
+      <c r="E30" s="252"/>
+      <c r="F30" s="252"/>
+      <c r="G30" s="252"/>
+      <c r="H30" s="253"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" hidden="1" customHeight="1">
       <c r="A31" s="24">
@@ -8556,14 +8597,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" hidden="1" customHeight="1">
-      <c r="A41" s="243"/>
-      <c r="B41" s="244"/>
-      <c r="C41" s="244"/>
-      <c r="D41" s="244"/>
-      <c r="E41" s="244"/>
-      <c r="F41" s="244"/>
-      <c r="G41" s="244"/>
-      <c r="H41" s="245"/>
+      <c r="A41" s="251"/>
+      <c r="B41" s="252"/>
+      <c r="C41" s="252"/>
+      <c r="D41" s="252"/>
+      <c r="E41" s="252"/>
+      <c r="F41" s="252"/>
+      <c r="G41" s="252"/>
+      <c r="H41" s="253"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1">
       <c r="A42" s="24">
@@ -9340,12 +9381,12 @@
       <c r="H79" s="30"/>
     </row>
     <row r="80" spans="1:8" s="37" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A80" s="236" t="s">
+      <c r="A80" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="236"/>
-      <c r="C80" s="236"/>
-      <c r="D80" s="236"/>
+      <c r="B80" s="242"/>
+      <c r="C80" s="242"/>
+      <c r="D80" s="242"/>
       <c r="E80" s="68">
         <f>SUM(E10:E79)</f>
         <v>6859489</v>
@@ -9367,11 +9408,6 @@
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:B7"/>
@@ -9381,6 +9417,11 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.54" right="0.26" top="0.32" bottom="0.74" header="0.23" footer="0.17"/>
@@ -9393,12 +9434,12 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -9407,78 +9448,81 @@
     <col min="2" max="2" width="19.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="233" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="6" width="15.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="233" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="4"/>
+    <col min="11" max="11" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+    <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
-    </row>
-    <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+    </row>
+    <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-    </row>
-    <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-    </row>
-    <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
-    <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+    </row>
+    <row r="4" spans="1:9" ht="9.75" customHeight="1"/>
+    <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A5" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-    </row>
-    <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
-    <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="239"/>
-      <c r="B7" s="239"/>
-      <c r="C7" s="267" t="s">
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+    </row>
+    <row r="6" spans="1:9" ht="9.75" customHeight="1"/>
+    <row r="7" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A7" s="247"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="273" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="267"/>
-    </row>
-    <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="268"/>
-      <c r="D8" s="269"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" s="75" customFormat="1" ht="47.25" customHeight="1">
+      <c r="D7" s="273"/>
+    </row>
+    <row r="8" spans="1:9" s="55" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C8" s="274"/>
+      <c r="D8" s="275"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:9" s="75" customFormat="1" ht="47.25" customHeight="1">
       <c r="A9" s="70" t="s">
         <v>0</v>
       </c>
@@ -9494,17 +9538,20 @@
       <c r="E9" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="72" t="s">
+        <v>436</v>
+      </c>
+      <c r="G9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="H9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="I9" s="70" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1">
       <c r="A10" s="24">
         <v>42318</v>
       </c>
@@ -9521,14 +9568,15 @@
         <f>C10*D10</f>
         <v>501930</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27">
-        <f>E10-F10</f>
+      <c r="F10" s="27"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="27">
+        <f>E10-G10</f>
         <v>501930</v>
       </c>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1">
       <c r="A11" s="24"/>
       <c r="B11" s="31" t="s">
         <v>427</v>
@@ -9543,14 +9591,15 @@
         <f t="shared" ref="E11:E24" si="0">C11*D11</f>
         <v>5070</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="27">
-        <f>IF(B11&lt;&gt;"",G10+E11-F11,0)</f>
+      <c r="F11" s="27"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="27">
+        <f>IF(B11&lt;&gt;"",H10+E11-F11-G11,0)</f>
         <v>507000</v>
       </c>
-      <c r="H11" s="30"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1">
       <c r="A12" s="24"/>
       <c r="B12" s="31" t="s">
         <v>428</v>
@@ -9565,14 +9614,15 @@
         <f t="shared" si="0"/>
         <v>116900</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="27">
-        <f t="shared" ref="G12:G26" si="1">IF(B12&lt;&gt;"",G11+E12-F12,0)</f>
+      <c r="F12" s="27"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="27">
+        <f t="shared" ref="H12:H26" si="1">IF(B12&lt;&gt;"",H11+E12-F12-G12,0)</f>
         <v>623900</v>
       </c>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" customHeight="1">
       <c r="A13" s="24">
         <v>42319</v>
       </c>
@@ -9589,14 +9639,15 @@
         <f t="shared" si="0"/>
         <v>145290</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="27">
+      <c r="F13" s="27"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="27">
         <f t="shared" si="1"/>
         <v>769190</v>
       </c>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" customHeight="1">
       <c r="A14" s="24">
         <v>42310</v>
       </c>
@@ -9608,14 +9659,15 @@
       <c r="E14" s="27">
         <v>300000</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="27">
+      <c r="F14" s="27"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="27">
         <f t="shared" si="1"/>
         <v>1069190</v>
       </c>
-      <c r="H14" s="30"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1">
       <c r="A15" s="24"/>
       <c r="B15" s="31" t="s">
         <v>430</v>
@@ -9625,14 +9677,15 @@
       <c r="E15" s="27">
         <v>3750</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="27">
+      <c r="F15" s="27"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="27">
         <f t="shared" si="1"/>
         <v>1072940</v>
       </c>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" customHeight="1">
       <c r="A16" s="24">
         <v>42310</v>
       </c>
@@ -9646,19 +9699,20 @@
         <v>48</v>
       </c>
       <c r="E16" s="27"/>
-      <c r="F16" s="29">
+      <c r="F16" s="27">
         <f>C16*D16</f>
         <v>336000</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="29"/>
+      <c r="H16" s="27">
         <f t="shared" si="1"/>
         <v>736940</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="I16" s="30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1">
       <c r="A17" s="24">
         <v>42315</v>
       </c>
@@ -9672,19 +9726,20 @@
         <v>48.5</v>
       </c>
       <c r="E17" s="27"/>
-      <c r="F17" s="29">
+      <c r="F17" s="27">
         <f t="shared" ref="F17:F19" si="2">C17*D17</f>
         <v>121250</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="29"/>
+      <c r="H17" s="27">
         <f t="shared" si="1"/>
         <v>615690</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="I17" s="30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1">
       <c r="A18" s="24">
         <v>42317</v>
       </c>
@@ -9698,19 +9753,20 @@
         <v>48.5</v>
       </c>
       <c r="E18" s="27"/>
-      <c r="F18" s="29">
+      <c r="F18" s="27">
         <f t="shared" si="2"/>
         <v>121250</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="29"/>
+      <c r="H18" s="27">
         <f t="shared" si="1"/>
         <v>494440</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="I18" s="30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1">
       <c r="A19" s="24"/>
       <c r="B19" s="31" t="s">
         <v>162</v>
@@ -9722,19 +9778,20 @@
         <v>49</v>
       </c>
       <c r="E19" s="27"/>
-      <c r="F19" s="29">
+      <c r="F19" s="27">
         <f t="shared" si="2"/>
         <v>73500</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="29"/>
+      <c r="H19" s="27">
         <f t="shared" si="1"/>
         <v>420940</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="I19" s="30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1">
       <c r="A20" s="24">
         <v>42329</v>
       </c>
@@ -9747,64 +9804,86 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="27"/>
+      <c r="G20" s="29">
         <v>300000</v>
       </c>
-      <c r="G20" s="27">
+      <c r="H20" s="27">
         <f t="shared" si="1"/>
         <v>120940</v>
       </c>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="27">
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A21" s="237"/>
+      <c r="B21" s="238" t="s">
+        <v>437</v>
+      </c>
+      <c r="C21" s="239">
+        <v>10</v>
+      </c>
+      <c r="D21" s="240">
+        <v>150</v>
+      </c>
+      <c r="E21" s="240"/>
+      <c r="F21" s="240">
+        <f>C21*D21</f>
+        <v>1500</v>
+      </c>
+      <c r="G21" s="240"/>
+      <c r="H21" s="240">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="30"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="27">
+        <v>119440</v>
+      </c>
+      <c r="I21" s="237"/>
+    </row>
+    <row r="22" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A22" s="237"/>
+      <c r="B22" s="238" t="s">
+        <v>438</v>
+      </c>
+      <c r="C22" s="239">
+        <v>10.95</v>
+      </c>
+      <c r="D22" s="240">
+        <v>40</v>
+      </c>
+      <c r="E22" s="240"/>
+      <c r="F22" s="240">
+        <f t="shared" ref="F22:F23" si="3">C22*D22</f>
+        <v>438</v>
+      </c>
+      <c r="G22" s="240"/>
+      <c r="H22" s="240">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="30"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="27">
+        <v>119002</v>
+      </c>
+      <c r="I22" s="237"/>
+    </row>
+    <row r="23" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A23" s="237"/>
+      <c r="B23" s="238" t="s">
+        <v>439</v>
+      </c>
+      <c r="C23" s="239">
+        <v>50</v>
+      </c>
+      <c r="D23" s="240">
+        <v>8.5</v>
+      </c>
+      <c r="E23" s="240"/>
+      <c r="F23" s="240">
+        <f t="shared" si="3"/>
+        <v>425</v>
+      </c>
+      <c r="G23" s="240"/>
+      <c r="H23" s="240">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1">
+        <v>118577</v>
+      </c>
+      <c r="I23" s="238"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1">
       <c r="A24" s="24"/>
       <c r="B24" s="31"/>
       <c r="C24" s="26"/>
@@ -9813,14 +9892,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="27">
+      <c r="F24" s="27"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="31"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="31"/>
       <c r="C25" s="26"/>
@@ -9829,14 +9909,15 @@
         <f>C25*D25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27">
+      <c r="F25" s="27"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="30"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1">
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1">
       <c r="A26" s="24"/>
       <c r="B26" s="31"/>
       <c r="C26" s="26"/>
@@ -9845,40 +9926,47 @@
         <f>C26*D26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="27">
+      <c r="F26" s="27"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="1:8" s="227" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="236" t="s">
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" s="227" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A27" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
       <c r="E27" s="68">
         <f>SUM(E10:E26)</f>
         <v>1072940</v>
       </c>
       <c r="F27" s="68">
         <f>SUM(F10:F26)</f>
-        <v>952000</v>
-      </c>
-      <c r="G27" s="82">
-        <f>E27-F27</f>
-        <v>120940</v>
-      </c>
-      <c r="H27" s="225"/>
-    </row>
-    <row r="28" spans="1:8" ht="21.75" customHeight="1">
-      <c r="F28" s="11"/>
-      <c r="G28" s="228"/>
+        <v>654363</v>
+      </c>
+      <c r="G27" s="68">
+        <f>SUM(G10:G26)</f>
+        <v>300000</v>
+      </c>
+      <c r="H27" s="82">
+        <f>E27-G27-F27</f>
+        <v>118577</v>
+      </c>
+      <c r="I27" s="225"/>
+    </row>
+    <row r="28" spans="1:9" ht="21.75" customHeight="1">
+      <c r="G28" s="11"/>
+      <c r="H28" s="228"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:H9"/>
+  <autoFilter ref="A9:I9">
+    <filterColumn colId="5"/>
+  </autoFilter>
   <mergeCells count="9">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A27:D27"/>
@@ -9886,7 +9974,7 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
   </mergeCells>
@@ -9924,66 +10012,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="267" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="273" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="267"/>
+      <c r="D7" s="273"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="268"/>
-      <c r="D8" s="269"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="275"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -10328,12 +10416,12 @@
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" s="200" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="236" t="s">
+      <c r="A27" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
       <c r="E27" s="68">
         <f>SUM(E10:E26)</f>
         <v>165493.6</v>
@@ -10400,71 +10488,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
+      <c r="B3" s="243"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="246" t="s">
+      <c r="D3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>390</v>
       </c>
-      <c r="B7" s="239"/>
+      <c r="B7" s="247"/>
       <c r="C7" s="227"/>
-      <c r="D7" s="267" t="s">
+      <c r="D7" s="273" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="267"/>
+      <c r="E7" s="273"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D8" s="268"/>
-      <c r="E8" s="269"/>
+      <c r="D8" s="274"/>
+      <c r="E8" s="275"/>
       <c r="G8" s="56"/>
       <c r="H8" s="38"/>
     </row>
@@ -11176,13 +11264,13 @@
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" s="200" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A37" s="236" t="s">
+      <c r="A37" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="236"/>
-      <c r="C37" s="236"/>
-      <c r="D37" s="236"/>
-      <c r="E37" s="236"/>
+      <c r="B37" s="242"/>
+      <c r="C37" s="242"/>
+      <c r="D37" s="242"/>
+      <c r="E37" s="242"/>
       <c r="F37" s="68">
         <f>SUM(F10:F36)</f>
         <v>848058</v>
@@ -11248,41 +11336,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="269" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
       <c r="I1" s="162"/>
       <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
       <c r="I2" s="162"/>
       <c r="J2" s="162"/>
     </row>
     <row r="3" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="269" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="263"/>
+      <c r="B3" s="269"/>
       <c r="C3" s="190"/>
-      <c r="D3" s="263" t="s">
+      <c r="D3" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
       <c r="G3" s="190"/>
       <c r="H3" s="186"/>
       <c r="I3" s="162"/>
@@ -11297,18 +11385,18 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
-      <c r="J5" s="262"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
+      <c r="I5" s="268"/>
+      <c r="J5" s="268"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="D6" s="8"/>
@@ -11319,10 +11407,10 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A7" s="260" t="s">
+      <c r="A7" s="266" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="260"/>
+      <c r="B7" s="266"/>
       <c r="C7" s="189"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" hidden="1" customHeight="1">
@@ -11607,16 +11695,16 @@
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="264" t="s">
+      <c r="A20" s="270" t="s">
         <v>353</v>
       </c>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="265"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="265"/>
+      <c r="B20" s="271"/>
+      <c r="C20" s="271"/>
+      <c r="D20" s="271"/>
+      <c r="E20" s="271"/>
+      <c r="F20" s="271"/>
+      <c r="G20" s="271"/>
+      <c r="H20" s="271"/>
       <c r="I20" s="99">
         <f>I19</f>
         <v>170230</v>
@@ -12114,16 +12202,16 @@
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A41" s="264" t="s">
+      <c r="A41" s="270" t="s">
         <v>354</v>
       </c>
-      <c r="B41" s="265"/>
-      <c r="C41" s="265"/>
-      <c r="D41" s="265"/>
-      <c r="E41" s="265"/>
-      <c r="F41" s="265"/>
-      <c r="G41" s="265"/>
-      <c r="H41" s="265"/>
+      <c r="B41" s="271"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="271"/>
+      <c r="E41" s="271"/>
+      <c r="F41" s="271"/>
+      <c r="G41" s="271"/>
+      <c r="H41" s="271"/>
       <c r="I41" s="99">
         <f>I40</f>
         <v>-14903</v>
@@ -12658,16 +12746,16 @@
       <c r="J62" s="16"/>
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A63" s="264" t="s">
+      <c r="A63" s="270" t="s">
         <v>355</v>
       </c>
-      <c r="B63" s="265"/>
-      <c r="C63" s="265"/>
-      <c r="D63" s="265"/>
-      <c r="E63" s="265"/>
-      <c r="F63" s="265"/>
-      <c r="G63" s="265"/>
-      <c r="H63" s="265"/>
+      <c r="B63" s="271"/>
+      <c r="C63" s="271"/>
+      <c r="D63" s="271"/>
+      <c r="E63" s="271"/>
+      <c r="F63" s="271"/>
+      <c r="G63" s="271"/>
+      <c r="H63" s="271"/>
       <c r="I63" s="99">
         <f>I62</f>
         <v>-22885</v>
@@ -13463,16 +13551,16 @@
       <c r="J93" s="16"/>
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A94" s="264" t="s">
+      <c r="A94" s="270" t="s">
         <v>356</v>
       </c>
-      <c r="B94" s="265"/>
-      <c r="C94" s="265"/>
-      <c r="D94" s="265"/>
-      <c r="E94" s="265"/>
-      <c r="F94" s="265"/>
-      <c r="G94" s="265"/>
-      <c r="H94" s="265"/>
+      <c r="B94" s="271"/>
+      <c r="C94" s="271"/>
+      <c r="D94" s="271"/>
+      <c r="E94" s="271"/>
+      <c r="F94" s="271"/>
+      <c r="G94" s="271"/>
+      <c r="H94" s="271"/>
       <c r="I94" s="99">
         <f>I93</f>
         <v>-433838</v>
@@ -14166,16 +14254,16 @@
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A121" s="264" t="s">
+      <c r="A121" s="270" t="s">
         <v>357</v>
       </c>
-      <c r="B121" s="265"/>
-      <c r="C121" s="265"/>
-      <c r="D121" s="265"/>
-      <c r="E121" s="265"/>
-      <c r="F121" s="265"/>
-      <c r="G121" s="265"/>
-      <c r="H121" s="265"/>
+      <c r="B121" s="271"/>
+      <c r="C121" s="271"/>
+      <c r="D121" s="271"/>
+      <c r="E121" s="271"/>
+      <c r="F121" s="271"/>
+      <c r="G121" s="271"/>
+      <c r="H121" s="271"/>
       <c r="I121" s="99">
         <f>I120</f>
         <v>-225994.5</v>
@@ -14665,16 +14753,16 @@
       <c r="J139" s="16"/>
     </row>
     <row r="140" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A140" s="264" t="s">
+      <c r="A140" s="270" t="s">
         <v>358</v>
       </c>
-      <c r="B140" s="265"/>
-      <c r="C140" s="265"/>
-      <c r="D140" s="265"/>
-      <c r="E140" s="265"/>
-      <c r="F140" s="265"/>
-      <c r="G140" s="265"/>
-      <c r="H140" s="265"/>
+      <c r="B140" s="271"/>
+      <c r="C140" s="271"/>
+      <c r="D140" s="271"/>
+      <c r="E140" s="271"/>
+      <c r="F140" s="271"/>
+      <c r="G140" s="271"/>
+      <c r="H140" s="271"/>
       <c r="I140" s="99">
         <f>I139</f>
         <v>-92729.3</v>
@@ -15172,16 +15260,16 @@
       <c r="J158" s="16"/>
     </row>
     <row r="159" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A159" s="264" t="s">
+      <c r="A159" s="270" t="s">
         <v>362</v>
       </c>
-      <c r="B159" s="265"/>
-      <c r="C159" s="265"/>
-      <c r="D159" s="265"/>
-      <c r="E159" s="265"/>
-      <c r="F159" s="265"/>
-      <c r="G159" s="265"/>
-      <c r="H159" s="265"/>
+      <c r="B159" s="271"/>
+      <c r="C159" s="271"/>
+      <c r="D159" s="271"/>
+      <c r="E159" s="271"/>
+      <c r="F159" s="271"/>
+      <c r="G159" s="271"/>
+      <c r="H159" s="271"/>
       <c r="I159" s="99">
         <f>I158</f>
         <v>-261663.69999999998</v>
@@ -15755,16 +15843,16 @@
       <c r="J180" s="16"/>
     </row>
     <row r="181" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A181" s="264" t="s">
+      <c r="A181" s="270" t="s">
         <v>415</v>
       </c>
-      <c r="B181" s="265"/>
-      <c r="C181" s="265"/>
-      <c r="D181" s="265"/>
-      <c r="E181" s="265"/>
-      <c r="F181" s="265"/>
-      <c r="G181" s="265"/>
-      <c r="H181" s="265"/>
+      <c r="B181" s="271"/>
+      <c r="C181" s="271"/>
+      <c r="D181" s="271"/>
+      <c r="E181" s="271"/>
+      <c r="F181" s="271"/>
+      <c r="G181" s="271"/>
+      <c r="H181" s="271"/>
       <c r="I181" s="99">
         <f>I180</f>
         <v>-29693.799999999945</v>
@@ -16326,13 +16414,13 @@
       <c r="J205" s="16"/>
     </row>
     <row r="206" spans="1:10" s="158" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A206" s="261" t="s">
+      <c r="A206" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="B206" s="261"/>
-      <c r="C206" s="261"/>
-      <c r="D206" s="261"/>
-      <c r="E206" s="261"/>
+      <c r="B206" s="267"/>
+      <c r="C206" s="267"/>
+      <c r="D206" s="267"/>
+      <c r="E206" s="267"/>
       <c r="F206" s="170">
         <f>SUM(F10:F205)</f>
         <v>4634462</v>
@@ -16411,41 +16499,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="269" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
       <c r="I1" s="162"/>
       <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
       <c r="I2" s="162"/>
       <c r="J2" s="162"/>
     </row>
     <row r="3" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="269" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="263"/>
+      <c r="B3" s="269"/>
       <c r="C3" s="204"/>
-      <c r="D3" s="263" t="s">
+      <c r="D3" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
       <c r="G3" s="204"/>
       <c r="H3" s="204"/>
       <c r="I3" s="162"/>
@@ -16460,18 +16548,18 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
-      <c r="J5" s="262"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
+      <c r="I5" s="268"/>
+      <c r="J5" s="268"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="D6" s="8"/>
@@ -16482,10 +16570,10 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A7" s="260" t="s">
+      <c r="A7" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="260"/>
+      <c r="B7" s="266"/>
       <c r="C7" s="202"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" hidden="1" customHeight="1">
@@ -16833,13 +16921,13 @@
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" s="202" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A26" s="261" t="s">
+      <c r="A26" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="261"/>
-      <c r="C26" s="261"/>
-      <c r="D26" s="261"/>
-      <c r="E26" s="261"/>
+      <c r="B26" s="267"/>
+      <c r="C26" s="267"/>
+      <c r="D26" s="267"/>
+      <c r="E26" s="267"/>
       <c r="F26" s="170">
         <f>SUM(F10:F25)</f>
         <v>216000</v>
@@ -16911,37 +16999,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="255" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="255"/>
+      <c r="C3" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
       <c r="F3" s="51"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
@@ -16954,16 +17042,16 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:9" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="254" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
+      <c r="B5" s="254"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
       <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
@@ -16974,18 +17062,18 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="238" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="246" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="259" t="s">
+      <c r="D7" s="246"/>
+      <c r="E7" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="259"/>
+      <c r="F7" s="265"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1">
@@ -17024,14 +17112,14 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="A10" s="273" t="s">
+      <c r="A10" s="279" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="274"/>
-      <c r="C10" s="274"/>
-      <c r="D10" s="274"/>
-      <c r="E10" s="274"/>
-      <c r="F10" s="274"/>
+      <c r="B10" s="280"/>
+      <c r="C10" s="280"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
       <c r="G10" s="48">
         <v>451789</v>
       </c>
@@ -17643,14 +17731,14 @@
       <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="A38" s="273" t="s">
+      <c r="A38" s="279" t="s">
         <v>251</v>
       </c>
-      <c r="B38" s="274"/>
-      <c r="C38" s="274"/>
-      <c r="D38" s="274"/>
-      <c r="E38" s="274"/>
-      <c r="F38" s="274"/>
+      <c r="B38" s="280"/>
+      <c r="C38" s="280"/>
+      <c r="D38" s="280"/>
+      <c r="E38" s="280"/>
+      <c r="F38" s="280"/>
       <c r="G38" s="48">
         <f>G37</f>
         <v>85826</v>
@@ -18142,14 +18230,14 @@
       </c>
     </row>
     <row r="60" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="A60" s="273" t="s">
+      <c r="A60" s="279" t="s">
         <v>382</v>
       </c>
-      <c r="B60" s="274"/>
-      <c r="C60" s="274"/>
-      <c r="D60" s="274"/>
-      <c r="E60" s="274"/>
-      <c r="F60" s="274"/>
+      <c r="B60" s="280"/>
+      <c r="C60" s="280"/>
+      <c r="D60" s="280"/>
+      <c r="E60" s="280"/>
+      <c r="F60" s="280"/>
       <c r="G60" s="48">
         <f>G59</f>
         <v>0</v>
@@ -18657,12 +18745,12 @@
       <c r="H83" s="24"/>
     </row>
     <row r="84" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A84" s="236" t="s">
+      <c r="A84" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="236"/>
-      <c r="C84" s="236"/>
-      <c r="D84" s="236"/>
+      <c r="B84" s="242"/>
+      <c r="C84" s="242"/>
+      <c r="D84" s="242"/>
       <c r="E84" s="68">
         <f>SUM(E11:E83)+G10</f>
         <v>5314676.9000000004</v>
@@ -18684,11 +18772,11 @@
       </c>
       <c r="C86" s="109"/>
       <c r="D86" s="110"/>
-      <c r="E86" s="275">
+      <c r="E86" s="281">
         <f>G84*1000</f>
         <v>695500000</v>
       </c>
-      <c r="F86" s="275"/>
+      <c r="F86" s="281"/>
       <c r="G86" s="115" t="s">
         <v>88</v>
       </c>
@@ -18712,28 +18800,35 @@
       <c r="I87" s="110"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1">
-      <c r="E89" s="276" t="s">
+      <c r="E89" s="282" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="276"/>
-      <c r="G89" s="276"/>
-      <c r="H89" s="276"/>
+      <c r="F89" s="282"/>
+      <c r="G89" s="282"/>
+      <c r="H89" s="282"/>
     </row>
     <row r="90" spans="1:9" ht="21.75" customHeight="1">
       <c r="A90" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B90" s="14"/>
-      <c r="E90" s="272" t="s">
+      <c r="E90" s="278" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="272"/>
-      <c r="G90" s="272"/>
-      <c r="H90" s="272"/>
+      <c r="F90" s="278"/>
+      <c r="G90" s="278"/>
+      <c r="H90" s="278"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="15">
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A60:F60"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
@@ -18742,13 +18837,6 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A60:F60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.61" right="0.16" top="0.64" bottom="0.2" header="0.3" footer="0.17"/>
@@ -18786,40 +18874,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="269" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
       <c r="H1" s="162"/>
       <c r="I1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
       <c r="H2" s="162"/>
       <c r="I2" s="162"/>
     </row>
     <row r="3" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="269" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="263"/>
+      <c r="B3" s="269"/>
       <c r="C3" s="194"/>
-      <c r="D3" s="263" t="s">
+      <c r="D3" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
       <c r="G3" s="194"/>
       <c r="H3" s="162"/>
       <c r="I3" s="162"/>
@@ -18832,17 +18920,17 @@
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
+      <c r="I5" s="268"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="D6" s="8"/>
@@ -18852,10 +18940,10 @@
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="260" t="s">
+      <c r="A7" s="266" t="s">
         <v>348</v>
       </c>
-      <c r="B7" s="260"/>
+      <c r="B7" s="266"/>
       <c r="C7" s="192"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
@@ -20344,13 +20432,13 @@
       <c r="I67" s="18"/>
     </row>
     <row r="68" spans="1:9" s="192" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A68" s="261" t="s">
+      <c r="A68" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="261"/>
-      <c r="C68" s="261"/>
-      <c r="D68" s="261"/>
-      <c r="E68" s="261"/>
+      <c r="B68" s="267"/>
+      <c r="C68" s="267"/>
+      <c r="D68" s="267"/>
+      <c r="E68" s="267"/>
       <c r="F68" s="170">
         <f>SUM(F10:F67)</f>
         <v>920849.4</v>
@@ -20429,7 +20517,7 @@
   </sheetPr>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
       <selection pane="bottomLeft" activeCell="I183" sqref="I183"/>
@@ -20450,39 +20538,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
       <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
       <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -20495,17 +20583,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -20514,14 +20602,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="238" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="246" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="238"/>
+      <c r="D7" s="246"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1">
       <c r="C8" s="57"/>
@@ -20562,15 +20650,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="240" t="s">
+      <c r="A10" s="248" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="241"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="242"/>
+      <c r="B10" s="249"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="249"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="250"/>
       <c r="H10" s="99">
         <v>2622054</v>
       </c>
@@ -22453,15 +22541,15 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A90" s="240" t="s">
+      <c r="A90" s="248" t="s">
         <v>251</v>
       </c>
-      <c r="B90" s="241"/>
-      <c r="C90" s="241"/>
-      <c r="D90" s="241"/>
-      <c r="E90" s="241"/>
-      <c r="F90" s="241"/>
-      <c r="G90" s="242"/>
+      <c r="B90" s="249"/>
+      <c r="C90" s="249"/>
+      <c r="D90" s="249"/>
+      <c r="E90" s="249"/>
+      <c r="F90" s="249"/>
+      <c r="G90" s="250"/>
       <c r="H90" s="99">
         <f>H89</f>
         <v>2411924</v>
@@ -23537,15 +23625,15 @@
       </c>
     </row>
     <row r="136" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A136" s="243"/>
-      <c r="B136" s="244"/>
-      <c r="C136" s="244"/>
-      <c r="D136" s="244"/>
-      <c r="E136" s="244"/>
-      <c r="F136" s="244"/>
-      <c r="G136" s="244"/>
-      <c r="H136" s="244"/>
-      <c r="I136" s="245"/>
+      <c r="A136" s="251"/>
+      <c r="B136" s="252"/>
+      <c r="C136" s="252"/>
+      <c r="D136" s="252"/>
+      <c r="E136" s="252"/>
+      <c r="F136" s="252"/>
+      <c r="G136" s="252"/>
+      <c r="H136" s="252"/>
+      <c r="I136" s="253"/>
     </row>
     <row r="137" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
       <c r="A137" s="39"/>
@@ -24735,12 +24823,12 @@
       <c r="I187" s="105"/>
     </row>
     <row r="188" spans="1:9" s="37" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A188" s="236" t="s">
+      <c r="A188" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B188" s="236"/>
-      <c r="C188" s="236"/>
-      <c r="D188" s="236"/>
+      <c r="B188" s="242"/>
+      <c r="C188" s="242"/>
+      <c r="D188" s="242"/>
       <c r="E188" s="68">
         <f>SUM(E10:E187)</f>
         <v>17332086</v>
@@ -24806,20 +24894,15 @@
     <row r="193" spans="1:9" ht="21.75" customHeight="1">
       <c r="A193" s="15"/>
       <c r="B193" s="14"/>
-      <c r="E193" s="237"/>
-      <c r="F193" s="237"/>
-      <c r="G193" s="237"/>
-      <c r="H193" s="237"/>
+      <c r="E193" s="245"/>
+      <c r="F193" s="245"/>
+      <c r="G193" s="245"/>
+      <c r="H193" s="245"/>
       <c r="I193" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="E193:H193"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="C7:D7"/>
@@ -24827,6 +24910,11 @@
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A136:I136"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.16" right="0.17" top="0.16" bottom="0.17" header="0.16" footer="0.16"/>
@@ -24863,66 +24951,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>397</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="267" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="273" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="267"/>
+      <c r="D7" s="273"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="268"/>
-      <c r="D8" s="269"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="275"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -25239,12 +25327,12 @@
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" s="200" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="236" t="s">
+      <c r="A27" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
       <c r="E27" s="68">
         <f>SUM(E10:E26)</f>
         <v>422100</v>
@@ -25309,37 +25397,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
       <c r="G1" s="53"/>
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
       <c r="G2" s="53"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="255" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="255"/>
+      <c r="C3" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
       <c r="F3" s="51"/>
       <c r="G3" s="53"/>
       <c r="H3" s="54"/>
@@ -25351,17 +25439,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="254" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
+      <c r="B5" s="254"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -25370,14 +25458,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="260" t="s">
+      <c r="A7" s="266" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="260"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="259"/>
-      <c r="F7" s="259"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="20.25" customHeight="1">
@@ -25956,12 +26044,12 @@
       <c r="I32" s="155"/>
     </row>
     <row r="33" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A33" s="236" t="s">
+      <c r="A33" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="236"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="236"/>
+      <c r="B33" s="242"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="242"/>
       <c r="E33" s="68">
         <f>SUM(E10:E32)</f>
         <v>756686.5</v>
@@ -26028,39 +26116,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -26075,18 +26163,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -26097,19 +26185,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="238" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="246" t="s">
         <v>399</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="259" t="s">
+      <c r="D7" s="246"/>
+      <c r="E7" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -26405,12 +26493,12 @@
       <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="236" t="s">
+      <c r="A25" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
+      <c r="B25" s="242"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="242"/>
       <c r="E25" s="68">
         <f>SUM(E10:E24)</f>
         <v>0</v>
@@ -26477,39 +26565,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -26524,18 +26612,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -26546,19 +26634,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="238" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="259" t="s">
+      <c r="D7" s="246"/>
+      <c r="E7" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -26764,12 +26852,12 @@
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A18" s="236" t="s">
+      <c r="A18" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="236"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="236"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
       <c r="E18" s="68">
         <f>SUM(E10:E17)</f>
         <v>169780</v>
@@ -26836,39 +26924,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -26883,18 +26971,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -26905,19 +26993,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="238" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="259" t="s">
+      <c r="D7" s="246"/>
+      <c r="E7" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -27177,12 +27265,12 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="236" t="s">
+      <c r="A22" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="236"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="236"/>
+      <c r="B22" s="242"/>
+      <c r="C22" s="242"/>
+      <c r="D22" s="242"/>
       <c r="E22" s="68">
         <f>SUM(E10:E21)</f>
         <v>90861</v>
@@ -27250,42 +27338,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
+      <c r="B3" s="243"/>
       <c r="C3" s="215"/>
-      <c r="D3" s="246" t="s">
+      <c r="D3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
       <c r="G3" s="93"/>
       <c r="H3" s="215"/>
       <c r="I3" s="62"/>
@@ -27300,19 +27388,19 @@
       <c r="J4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1">
       <c r="D6" s="4"/>
@@ -27323,20 +27411,20 @@
       <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="239"/>
+      <c r="B7" s="247"/>
       <c r="C7" s="214"/>
-      <c r="D7" s="238" t="s">
+      <c r="D7" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="238"/>
-      <c r="F7" s="259" t="s">
+      <c r="E7" s="246"/>
+      <c r="F7" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="259"/>
-      <c r="H7" s="259"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
       <c r="J7" s="217"/>
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="18" customHeight="1">
@@ -27705,13 +27793,13 @@
       <c r="J22" s="155"/>
     </row>
     <row r="23" spans="1:11" s="214" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="236" t="s">
+      <c r="A23" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="236"/>
+      <c r="B23" s="242"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="242"/>
       <c r="F23" s="68">
         <f>SUM(F10:F22)</f>
         <v>710859.29999999993</v>
@@ -27780,39 +27868,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -27827,18 +27915,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -27849,19 +27937,19 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>417</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="238" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="259" t="s">
+      <c r="D7" s="246"/>
+      <c r="E7" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
       <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -28128,12 +28216,12 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="219" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="236" t="s">
+      <c r="A22" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="236"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="236"/>
+      <c r="B22" s="242"/>
+      <c r="C22" s="242"/>
+      <c r="D22" s="242"/>
       <c r="E22" s="68">
         <f>SUM(E10:E21)</f>
         <v>339360</v>
@@ -28179,7 +28267,7 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B80" sqref="B80"/>
       <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
@@ -28200,39 +28288,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -28247,18 +28335,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -28269,19 +28357,19 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>418</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="238" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="259" t="s">
+      <c r="D7" s="246"/>
+      <c r="E7" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
       <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -28553,12 +28641,12 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="219" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="236" t="s">
+      <c r="A22" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="236"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="236"/>
+      <c r="B22" s="242"/>
+      <c r="C22" s="242"/>
+      <c r="D22" s="242"/>
       <c r="E22" s="68">
         <f>SUM(E10:E21)</f>
         <v>202400</v>
@@ -29585,37 +29673,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="255" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="255"/>
+      <c r="C3" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
       <c r="F3" s="51"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
@@ -29628,16 +29716,16 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
+      <c r="B5" s="254"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -29647,10 +29735,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="239"/>
+      <c r="B7" s="247"/>
       <c r="E7" s="185" t="s">
         <v>303</v>
       </c>
@@ -30009,14 +30097,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="250" t="s">
+      <c r="A24" s="256" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="250"/>
-      <c r="C24" s="250"/>
-      <c r="D24" s="250"/>
-      <c r="E24" s="250"/>
-      <c r="F24" s="250"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="256"/>
+      <c r="D24" s="256"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
       <c r="G24" s="172">
         <f>G23</f>
         <v>853629</v>
@@ -32844,12 +32932,12 @@
       <c r="H151" s="24"/>
     </row>
     <row r="152" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="236" t="s">
+      <c r="A152" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B152" s="236"/>
-      <c r="C152" s="236"/>
-      <c r="D152" s="236"/>
+      <c r="B152" s="242"/>
+      <c r="C152" s="242"/>
+      <c r="D152" s="242"/>
       <c r="E152" s="68">
         <f>SUM(E10:E151)</f>
         <v>10208134</v>
@@ -32948,65 +33036,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="239"/>
+      <c r="D7" s="247"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="11.25" customHeight="1">
       <c r="G8" s="56"/>
@@ -33042,15 +33130,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A10" s="254" t="s">
+      <c r="A10" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="255"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="255"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="256"/>
+      <c r="B10" s="258"/>
+      <c r="C10" s="258"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="258"/>
+      <c r="F10" s="258"/>
+      <c r="G10" s="259"/>
       <c r="H10" s="144">
         <v>699938</v>
       </c>
@@ -34737,15 +34825,15 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A81" s="254" t="s">
+      <c r="A81" s="257" t="s">
         <v>199</v>
       </c>
-      <c r="B81" s="255"/>
-      <c r="C81" s="255"/>
-      <c r="D81" s="255"/>
-      <c r="E81" s="255"/>
-      <c r="F81" s="255"/>
-      <c r="G81" s="256"/>
+      <c r="B81" s="258"/>
+      <c r="C81" s="258"/>
+      <c r="D81" s="258"/>
+      <c r="E81" s="258"/>
+      <c r="F81" s="258"/>
+      <c r="G81" s="259"/>
       <c r="H81" s="144">
         <f>H80</f>
         <v>1800668</v>
@@ -35727,15 +35815,15 @@
       <c r="I120" s="31"/>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A121" s="254" t="s">
+      <c r="A121" s="257" t="s">
         <v>251</v>
       </c>
-      <c r="B121" s="255"/>
-      <c r="C121" s="255"/>
-      <c r="D121" s="255"/>
-      <c r="E121" s="255"/>
-      <c r="F121" s="255"/>
-      <c r="G121" s="256"/>
+      <c r="B121" s="258"/>
+      <c r="C121" s="258"/>
+      <c r="D121" s="258"/>
+      <c r="E121" s="258"/>
+      <c r="F121" s="258"/>
+      <c r="G121" s="259"/>
       <c r="H121" s="144">
         <f>H120</f>
         <v>2586475</v>
@@ -36467,7 +36555,7 @@
         <f t="shared" si="22"/>
         <v>307801.5</v>
       </c>
-      <c r="I152" s="257" t="s">
+      <c r="I152" s="263" t="s">
         <v>198</v>
       </c>
     </row>
@@ -36492,7 +36580,7 @@
         <f t="shared" si="22"/>
         <v>318851.5</v>
       </c>
-      <c r="I153" s="258"/>
+      <c r="I153" s="264"/>
     </row>
     <row r="154" spans="1:9" ht="20.25" customHeight="1">
       <c r="A154" s="24">
@@ -36709,12 +36797,12 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" s="37" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A164" s="251" t="s">
+      <c r="A164" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="252"/>
-      <c r="C164" s="252"/>
-      <c r="D164" s="253"/>
+      <c r="B164" s="261"/>
+      <c r="C164" s="261"/>
+      <c r="D164" s="262"/>
       <c r="E164" s="81">
         <f>SUM(E11:E163)+H10</f>
         <v>8739526.5</v>
@@ -36771,11 +36859,6 @@
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:B7"/>
@@ -36783,6 +36866,11 @@
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="I152:I153"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.41" right="0.22" top="0.28000000000000003" bottom="0.15" header="0.16" footer="0.15"/>
@@ -36819,42 +36907,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
+      <c r="B3" s="243"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="246" t="s">
+      <c r="D3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
       <c r="G3" s="93"/>
       <c r="H3" s="198"/>
       <c r="I3" s="62"/>
@@ -36869,19 +36957,19 @@
       <c r="J4" s="207"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1">
       <c r="D6" s="4"/>
@@ -36892,20 +36980,20 @@
       <c r="J6" s="207"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="239"/>
+      <c r="B7" s="247"/>
       <c r="C7" s="227"/>
-      <c r="D7" s="238" t="s">
+      <c r="D7" s="246" t="s">
         <v>399</v>
       </c>
-      <c r="E7" s="238"/>
-      <c r="F7" s="259" t="s">
+      <c r="E7" s="246"/>
+      <c r="F7" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="259"/>
-      <c r="H7" s="259"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
       <c r="J7" s="207"/>
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="18" customHeight="1">
@@ -37426,16 +37514,16 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="35" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="A29" s="250" t="s">
+      <c r="A29" s="256" t="s">
         <v>252</v>
       </c>
-      <c r="B29" s="250"/>
-      <c r="C29" s="250"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="250"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="250"/>
+      <c r="B29" s="256"/>
+      <c r="C29" s="256"/>
+      <c r="D29" s="256"/>
+      <c r="E29" s="256"/>
+      <c r="F29" s="256"/>
+      <c r="G29" s="256"/>
+      <c r="H29" s="256"/>
       <c r="I29" s="153">
         <f>I28</f>
         <v>0</v>
@@ -39040,13 +39128,13 @@
       <c r="J94" s="31"/>
     </row>
     <row r="95" spans="1:11" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A95" s="236" t="s">
+      <c r="A95" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="236"/>
-      <c r="C95" s="236"/>
-      <c r="D95" s="236"/>
-      <c r="E95" s="236"/>
+      <c r="B95" s="242"/>
+      <c r="C95" s="242"/>
+      <c r="D95" s="242"/>
+      <c r="E95" s="242"/>
       <c r="F95" s="68">
         <f>SUM(F10:F94)</f>
         <v>5694938.5</v>
@@ -39118,38 +39206,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="269" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
       <c r="F1" s="177"/>
       <c r="G1" s="162"/>
       <c r="H1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
       <c r="G2" s="162"/>
       <c r="H2" s="162"/>
     </row>
     <row r="3" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="269" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263" t="s">
+      <c r="B3" s="269"/>
+      <c r="C3" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
       <c r="F3" s="178"/>
       <c r="G3" s="162"/>
       <c r="H3" s="162"/>
@@ -39162,17 +39250,17 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
+      <c r="I5" s="268"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="8"/>
@@ -39182,10 +39270,10 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="260" t="s">
+      <c r="A7" s="266" t="s">
         <v>369</v>
       </c>
-      <c r="B7" s="260"/>
+      <c r="B7" s="266"/>
       <c r="C7" s="210" t="s">
         <v>371</v>
       </c>
@@ -39344,12 +39432,12 @@
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9" s="158" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="261" t="s">
+      <c r="A17" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="261"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
+      <c r="B17" s="267"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="267"/>
       <c r="E17" s="170">
         <f>SUM(E10:E16)</f>
         <v>445985</v>
@@ -39447,38 +39535,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="269" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
       <c r="F1" s="177"/>
       <c r="G1" s="162"/>
       <c r="H1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
       <c r="G2" s="162"/>
       <c r="H2" s="162"/>
     </row>
     <row r="3" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="269" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263" t="s">
+      <c r="B3" s="269"/>
+      <c r="C3" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
       <c r="F3" s="178"/>
       <c r="G3" s="162"/>
       <c r="H3" s="162"/>
@@ -39491,17 +39579,17 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
+      <c r="I5" s="268"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="8"/>
@@ -39511,10 +39599,10 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="260" t="s">
+      <c r="A7" s="266" t="s">
         <v>421</v>
       </c>
-      <c r="B7" s="260"/>
+      <c r="B7" s="266"/>
       <c r="C7" s="210"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
@@ -39681,12 +39769,12 @@
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9" s="230" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="261" t="s">
+      <c r="A17" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="261"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
+      <c r="B17" s="267"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="267"/>
       <c r="E17" s="170">
         <f>SUM(E10:E16)</f>
         <v>193050</v>
@@ -39784,39 +39872,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -39831,18 +39919,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -39853,19 +39941,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="238" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="259" t="s">
+      <c r="D7" s="246"/>
+      <c r="E7" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -40577,12 +40665,12 @@
       <c r="I38" s="201"/>
     </row>
     <row r="39" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="236" t="s">
+      <c r="A39" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="236"/>
-      <c r="C39" s="236"/>
-      <c r="D39" s="236"/>
+      <c r="B39" s="242"/>
+      <c r="C39" s="242"/>
+      <c r="D39" s="242"/>
       <c r="E39" s="68">
         <f>SUM(E10:E38)</f>
         <v>93300</v>
@@ -40651,39 +40739,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -40698,18 +40786,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -40720,19 +40808,19 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="247" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="238" t="s">
+      <c r="B7" s="247"/>
+      <c r="C7" s="246" t="s">
         <v>413</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="259" t="s">
+      <c r="D7" s="246"/>
+      <c r="E7" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
       <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -41303,12 +41391,12 @@
       <c r="I38" s="220"/>
     </row>
     <row r="39" spans="1:10" s="219" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="236" t="s">
+      <c r="A39" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="236"/>
-      <c r="C39" s="236"/>
-      <c r="D39" s="236"/>
+      <c r="B39" s="242"/>
+      <c r="C39" s="242"/>
+      <c r="D39" s="242"/>
       <c r="E39" s="68">
         <f>SUM(E10:E38)</f>
         <v>153360</v>
